--- a/score.xlsx
+++ b/score.xlsx
@@ -15,112 +15,112 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>DataProcess_handon</t>
-  </si>
-  <si>
-    <t>DataVisualiztion_handon</t>
+    <t>學號</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>Python123</t>
+  </si>
+  <si>
+    <t>爬蟲1</t>
+  </si>
+  <si>
+    <t>爬蟲2</t>
   </si>
   <si>
     <t>EDA_DPP</t>
   </si>
   <si>
-    <t>MidTerm</t>
-  </si>
-  <si>
-    <t>Python123</t>
-  </si>
-  <si>
-    <t>WebCralwer1</t>
-  </si>
-  <si>
-    <t>WebCrawler2</t>
+    <t>資料處裡_口頭報告</t>
+  </si>
+  <si>
+    <t>資料視覺化_口頭報告</t>
+  </si>
+  <si>
+    <t>期中考</t>
+  </si>
+  <si>
+    <t>D1245884</t>
   </si>
   <si>
     <t>吳欣恩</t>
   </si>
   <si>
-    <t>D1245884</t>
+    <t>D1017483</t>
   </si>
   <si>
     <t>廖宇榤</t>
   </si>
   <si>
-    <t>D1017483</t>
+    <t>D1089857</t>
   </si>
   <si>
     <t>施東賢</t>
   </si>
   <si>
-    <t>D1089857</t>
+    <t>D1010688</t>
   </si>
   <si>
     <t>施秉均</t>
   </si>
   <si>
-    <t>D1010688</t>
+    <t>D1043618</t>
   </si>
   <si>
     <t>李世澤</t>
   </si>
   <si>
-    <t>D1043618</t>
-  </si>
-  <si>
     <t>d1043618</t>
   </si>
   <si>
+    <t>D0941556</t>
+  </si>
+  <si>
     <t>林俞安</t>
   </si>
   <si>
-    <t>D0941556</t>
+    <t>D1089814</t>
   </si>
   <si>
     <t>林莛偉</t>
   </si>
   <si>
-    <t>D1089814</t>
+    <t>D1088958</t>
   </si>
   <si>
     <t>楊承豫</t>
   </si>
   <si>
-    <t>D1088958</t>
+    <t>D1017405</t>
   </si>
   <si>
     <t>王怡媄</t>
   </si>
   <si>
-    <t>D1017405</t>
+    <t>D1046213</t>
   </si>
   <si>
     <t>王羿琇</t>
   </si>
   <si>
-    <t>D1046213</t>
+    <t>D1018599</t>
   </si>
   <si>
     <t>莊程為</t>
   </si>
   <si>
-    <t>D1018599</t>
+    <t>D1046864</t>
   </si>
   <si>
     <t>陳姿妤</t>
   </si>
   <si>
-    <t>D1046864</t>
+    <t>D1348434</t>
   </si>
   <si>
     <t>陳子翔</t>
-  </si>
-  <si>
-    <t>D1348434</t>
   </si>
 </sst>
 </file>
@@ -384,6 +384,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="9.38"/>
+    <col customWidth="1" min="7" max="7" width="14.88"/>
+    <col customWidth="1" min="8" max="8" width="17.13"/>
+    <col customWidth="1" min="9" max="9" width="10.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -422,25 +428,25 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>100.0</v>
+        <v>66.0</v>
       </c>
       <c r="D2" s="1">
         <v>100.0</v>
       </c>
       <c r="E2" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="F2" s="1">
         <v>80.0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I2" s="1">
         <v>92.0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>66.0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>49.0</v>
       </c>
     </row>
     <row r="3">
@@ -457,19 +463,19 @@
         <v>100.0</v>
       </c>
       <c r="E3" s="1">
-        <v>100.0</v>
+        <v>74.0</v>
       </c>
       <c r="F3" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I3" s="1">
         <v>92.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>74.0</v>
       </c>
     </row>
     <row r="4">
@@ -483,22 +489,22 @@
         <v>100.0</v>
       </c>
       <c r="D4" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="H4" s="1">
         <v>85.0</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="I4" s="1">
         <v>92.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>74.0</v>
       </c>
     </row>
     <row r="5">
@@ -509,19 +515,19 @@
         <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D5" s="1">
         <v>100.0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
       <c r="F5" s="1">
-        <v>84.0</v>
+        <v>0.0</v>
       </c>
       <c r="G5" s="1">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="H5" s="1">
         <v>100.0</v>
@@ -538,7 +544,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D6" s="1">
         <v>0.0</v>
@@ -550,7 +556,7 @@
         <v>0.0</v>
       </c>
       <c r="G6" s="1">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" s="1">
         <v>0.0</v>
@@ -561,31 +567,31 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="F7" s="1">
         <v>0.0</v>
       </c>
       <c r="G7" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="H7" s="1">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" s="1">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -596,7 +602,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="D8" s="1">
         <v>0.0</v>
@@ -608,7 +614,7 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="1">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" s="1">
         <v>0.0</v>
@@ -625,25 +631,25 @@
         <v>23</v>
       </c>
       <c r="C9" s="1">
-        <v>100.0</v>
+        <v>86.0</v>
       </c>
       <c r="D9" s="1">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="E9" s="1">
         <v>90.0</v>
       </c>
       <c r="F9" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="H9" s="1">
         <v>80.0</v>
       </c>
-      <c r="G9" s="1">
-        <v>86.0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>100.0</v>
-      </c>
       <c r="I9" s="1">
-        <v>90.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="10">
@@ -654,7 +660,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="D10" s="1">
         <v>0.0</v>
@@ -663,16 +669,16 @@
         <v>0.0</v>
       </c>
       <c r="F10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="1">
         <v>68.0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>66.0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -683,25 +689,25 @@
         <v>27</v>
       </c>
       <c r="C11" s="1">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E11" s="1">
         <v>100.0</v>
       </c>
       <c r="F11" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="1">
         <v>96.0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>100.0</v>
       </c>
     </row>
     <row r="12">
@@ -712,25 +718,25 @@
         <v>29</v>
       </c>
       <c r="C12" s="1">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
       <c r="F12" s="1">
         <v>0.0</v>
       </c>
       <c r="G12" s="1">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="H12" s="1">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="I12" s="1">
-        <v>74.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -741,25 +747,25 @@
         <v>31</v>
       </c>
       <c r="C13" s="1">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
       <c r="D13" s="1">
         <v>100.0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="F13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I13" s="1">
         <v>80.0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>86.0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>85.0</v>
       </c>
     </row>
     <row r="14">
@@ -770,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D14" s="1">
         <v>100.0</v>
@@ -779,16 +785,16 @@
         <v>100.0</v>
       </c>
       <c r="F14" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I14" s="1">
         <v>80.0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>100.0</v>
       </c>
     </row>
     <row r="15">
@@ -799,25 +805,25 @@
         <v>35</v>
       </c>
       <c r="C15" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E15" s="1">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="F15" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="1">
         <v>92.0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>90.0</v>
       </c>
     </row>
   </sheetData>

--- a/score.xlsx
+++ b/score.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>學號</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>李世澤</t>
-  </si>
-  <si>
-    <t>d1043618</t>
   </si>
   <si>
     <t>D0941556</t>
@@ -547,16 +544,16 @@
         <v>100.0</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="F6" s="1">
         <v>0.0</v>
       </c>
       <c r="G6" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="H6" s="1">
         <v>0.0</v>
@@ -570,22 +567,22 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="D7" s="1">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="E7" s="1">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="1">
         <v>0.0</v>
       </c>
       <c r="G7" s="1">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" s="1">
         <v>0.0</v>
@@ -596,135 +593,135 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>40.0</v>
+        <v>86.0</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="I8" s="1">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
-        <v>86.0</v>
+        <v>66.0</v>
       </c>
       <c r="D9" s="1">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="E9" s="1">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="1">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" s="1">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" s="1">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" s="1">
-        <v>80.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
-        <v>66.0</v>
+        <v>93.0</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="H10" s="1">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
-        <v>68.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
-        <v>93.0</v>
+        <v>60.0</v>
       </c>
       <c r="D11" s="1">
         <v>100.0</v>
       </c>
       <c r="E11" s="1">
-        <v>100.0</v>
+        <v>74.0</v>
       </c>
       <c r="F11" s="1">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="G11" s="1">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="H11" s="1">
         <v>0.0</v>
       </c>
       <c r="I11" s="1">
-        <v>96.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
-        <v>60.0</v>
+        <v>86.0</v>
       </c>
       <c r="D12" s="1">
         <v>100.0</v>
       </c>
       <c r="E12" s="1">
-        <v>74.0</v>
+        <v>85.0</v>
       </c>
       <c r="F12" s="1">
         <v>0.0</v>
@@ -733,30 +730,30 @@
         <v>0.0</v>
       </c>
       <c r="H12" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I12" s="1">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
-        <v>86.0</v>
+        <v>100.0</v>
       </c>
       <c r="D13" s="1">
         <v>100.0</v>
       </c>
       <c r="E13" s="1">
-        <v>85.0</v>
+        <v>100.0</v>
       </c>
       <c r="F13" s="1">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="G13" s="1">
         <v>0.0</v>
@@ -770,10 +767,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
         <v>100.0</v>
@@ -782,7 +779,7 @@
         <v>100.0</v>
       </c>
       <c r="E14" s="1">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="F14" s="1">
         <v>100.0</v>
@@ -791,38 +788,9 @@
         <v>0.0</v>
       </c>
       <c r="H14" s="1">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="I14" s="1">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>90.0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I15" s="1">
         <v>92.0</v>
       </c>
     </row>
@@ -840,7 +808,16 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -854,7 +831,16 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/score.xlsx
+++ b/score.xlsx
@@ -33,10 +33,10 @@
     <t>EDA_DPP</t>
   </si>
   <si>
-    <t>資料處裡_口頭報告</t>
-  </si>
-  <si>
-    <t>資料視覺化_口頭報告</t>
+    <t>DP_口頭報告</t>
+  </si>
+  <si>
+    <t>DV_口頭報告</t>
   </si>
   <si>
     <t>期中考</t>
@@ -383,8 +383,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="9.38"/>
-    <col customWidth="1" min="7" max="7" width="14.88"/>
-    <col customWidth="1" min="8" max="8" width="17.13"/>
+    <col customWidth="1" min="3" max="3" width="11.25"/>
+    <col customWidth="1" min="7" max="7" width="12.88"/>
+    <col customWidth="1" min="8" max="8" width="12.5"/>
     <col customWidth="1" min="9" max="9" width="10.75"/>
   </cols>
   <sheetData>

--- a/score.xlsx
+++ b/score.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>學號</t>
   </si>
@@ -33,10 +33,10 @@
     <t>EDA_DPP</t>
   </si>
   <si>
-    <t>DP_口頭報告</t>
-  </si>
-  <si>
-    <t>DV_口頭報告</t>
+    <t>DP_報告</t>
+  </si>
+  <si>
+    <t>DV_報告</t>
   </si>
   <si>
     <t>期中考</t>
@@ -118,13 +118,67 @@
   </si>
   <si>
     <t>陳子翔</t>
+  </si>
+  <si>
+    <t>DataProcess</t>
+  </si>
+  <si>
+    <t>DataVisual</t>
+  </si>
+  <si>
+    <t>WebCralwer1</t>
+  </si>
+  <si>
+    <t>WebCrawler2</t>
+  </si>
+  <si>
+    <t>M1202150</t>
+  </si>
+  <si>
+    <t>鄭力銓</t>
+  </si>
+  <si>
+    <t>M1213970</t>
+  </si>
+  <si>
+    <t>劉詠琪</t>
+  </si>
+  <si>
+    <t>M1301075</t>
+  </si>
+  <si>
+    <t>舒郁心</t>
+  </si>
+  <si>
+    <t>M1306321</t>
+  </si>
+  <si>
+    <t>羅鈺琇</t>
+  </si>
+  <si>
+    <t>M1310978</t>
+  </si>
+  <si>
+    <t>林俊穎</t>
+  </si>
+  <si>
+    <t>M1316980</t>
+  </si>
+  <si>
+    <t>李承運</t>
+  </si>
+  <si>
+    <t>M1330236</t>
+  </si>
+  <si>
+    <t>汪育如</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -135,6 +189,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,12 +209,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,7 +456,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="9.38"/>
-    <col customWidth="1" min="3" max="3" width="11.25"/>
+    <col customWidth="1" min="3" max="3" width="11.0"/>
     <col customWidth="1" min="7" max="7" width="12.88"/>
     <col customWidth="1" min="8" max="8" width="12.5"/>
     <col customWidth="1" min="9" max="9" width="10.75"/>
@@ -840,6 +913,230 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>46.0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>94.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>72.0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>72.0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>93.0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>88.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>73.0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>92.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>92.0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>72.0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5">
+        <v>95.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>92.0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>90.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/score.xlsx
+++ b/score.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="192">
   <si>
     <t>學號</t>
   </si>
@@ -120,16 +120,433 @@
     <t>陳子翔</t>
   </si>
   <si>
+    <t>UTM_NPO</t>
+  </si>
+  <si>
+    <t>SM_marketing</t>
+  </si>
+  <si>
+    <t>IG_marketing</t>
+  </si>
+  <si>
+    <t>FB_marketing</t>
+  </si>
+  <si>
+    <t>SM_data_analytics</t>
+  </si>
+  <si>
+    <t>Web_analytics</t>
+  </si>
+  <si>
+    <t>GA_basic</t>
+  </si>
+  <si>
+    <t>GA_Event</t>
+  </si>
+  <si>
+    <t>GA_Report</t>
+  </si>
+  <si>
+    <t>D0158013</t>
+  </si>
+  <si>
+    <t>余昇豐</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>D1046495</t>
+  </si>
+  <si>
+    <t>徐翊翔</t>
+  </si>
+  <si>
+    <t>D1058013</t>
+  </si>
+  <si>
+    <t>D1060300</t>
+  </si>
+  <si>
+    <t>陳星宇</t>
+  </si>
+  <si>
+    <t>D1085717</t>
+  </si>
+  <si>
+    <t>林映涵</t>
+  </si>
+  <si>
+    <t>D1085718</t>
+  </si>
+  <si>
+    <t>D1121018</t>
+  </si>
+  <si>
+    <t>黃郁晴</t>
+  </si>
+  <si>
+    <t>D1122851</t>
+  </si>
+  <si>
+    <t>蔡喬淇</t>
+  </si>
+  <si>
+    <t>D1122882</t>
+  </si>
+  <si>
+    <t>黃資詠</t>
+  </si>
+  <si>
+    <t>D1122895</t>
+  </si>
+  <si>
+    <t>陳昱如</t>
+  </si>
+  <si>
+    <t>D1122937</t>
+  </si>
+  <si>
+    <t>易巧縈</t>
+  </si>
+  <si>
+    <t>D1122967</t>
+  </si>
+  <si>
+    <t>蕭亦峰</t>
+  </si>
+  <si>
+    <t>D1125616</t>
+  </si>
+  <si>
+    <t>侯宜葶</t>
+  </si>
+  <si>
+    <t>D1128606</t>
+  </si>
+  <si>
+    <t>陳耐心</t>
+  </si>
+  <si>
+    <t>D1129167</t>
+  </si>
+  <si>
+    <t>林金國</t>
+  </si>
+  <si>
+    <t>D1130691</t>
+  </si>
+  <si>
+    <t>陳義鍾</t>
+  </si>
+  <si>
+    <t>D1145125</t>
+  </si>
+  <si>
+    <t>王孜予</t>
+  </si>
+  <si>
+    <t>D1145155</t>
+  </si>
+  <si>
+    <t>張意瑄</t>
+  </si>
+  <si>
+    <t>D1145172</t>
+  </si>
+  <si>
+    <t>張恩齊</t>
+  </si>
+  <si>
+    <t>D1145186</t>
+  </si>
+  <si>
+    <t>李庭慧</t>
+  </si>
+  <si>
+    <t>D1145261</t>
+  </si>
+  <si>
+    <t>賴姿妤</t>
+  </si>
+  <si>
+    <t>D1145316</t>
+  </si>
+  <si>
+    <t>許聿新</t>
+  </si>
+  <si>
+    <t>D1145359</t>
+  </si>
+  <si>
+    <t>鐘祺喻</t>
+  </si>
+  <si>
+    <t>D1145363</t>
+  </si>
+  <si>
+    <t>黃家怡</t>
+  </si>
+  <si>
+    <t>D1145380</t>
+  </si>
+  <si>
+    <t>游雅筑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1145380 </t>
+  </si>
+  <si>
+    <t>D1145452</t>
+  </si>
+  <si>
+    <t>黃柏鈞</t>
+  </si>
+  <si>
+    <t>D1145466</t>
+  </si>
+  <si>
+    <t>陳姝燐</t>
+  </si>
+  <si>
+    <t>D1145479</t>
+  </si>
+  <si>
+    <t>林咸震</t>
+  </si>
+  <si>
+    <t>D1145507</t>
+  </si>
+  <si>
+    <t>梁晏慈</t>
+  </si>
+  <si>
+    <t>D1145554</t>
+  </si>
+  <si>
+    <t>張晉榕</t>
+  </si>
+  <si>
+    <t>D1145568</t>
+  </si>
+  <si>
+    <t>陳頎尹</t>
+  </si>
+  <si>
+    <t>D1145585</t>
+  </si>
+  <si>
+    <t>王宗竣</t>
+  </si>
+  <si>
+    <t>D114558t</t>
+  </si>
+  <si>
+    <t>D1145609</t>
+  </si>
+  <si>
+    <t>葉芷薰</t>
+  </si>
+  <si>
+    <t>D1145613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 洪儀</t>
+  </si>
+  <si>
+    <t>洪儀</t>
+  </si>
+  <si>
+    <t>D1145687</t>
+  </si>
+  <si>
+    <t>陳俊宏</t>
+  </si>
+  <si>
+    <t>D1145729</t>
+  </si>
+  <si>
+    <t>蕭允哲</t>
+  </si>
+  <si>
+    <t>D1145793</t>
+  </si>
+  <si>
+    <t>洪茜翎</t>
+  </si>
+  <si>
+    <t>D1145804</t>
+  </si>
+  <si>
+    <t>蔡家睿</t>
+  </si>
+  <si>
+    <t>D1145806</t>
+  </si>
+  <si>
+    <t>林其臻</t>
+  </si>
+  <si>
+    <t>D1145882</t>
+  </si>
+  <si>
+    <t>陳佳妤</t>
+  </si>
+  <si>
+    <t>D1145895</t>
+  </si>
+  <si>
+    <t>林敏妍</t>
+  </si>
+  <si>
+    <t>D1145906</t>
+  </si>
+  <si>
+    <t>D1145923</t>
+  </si>
+  <si>
+    <t>朱婕寧</t>
+  </si>
+  <si>
+    <t>D1145953</t>
+  </si>
+  <si>
+    <t>張若欣</t>
+  </si>
+  <si>
+    <t>D1145967</t>
+  </si>
+  <si>
+    <t>林峻宇</t>
+  </si>
+  <si>
+    <t>D1145970</t>
+  </si>
+  <si>
+    <t>古芳宜</t>
+  </si>
+  <si>
+    <t>D1145997</t>
+  </si>
+  <si>
+    <t>董化婷</t>
+  </si>
+  <si>
+    <t>D1146007</t>
+  </si>
+  <si>
+    <t>徐婕文</t>
+  </si>
+  <si>
+    <t>D1146038</t>
+  </si>
+  <si>
+    <t>洪宏勝</t>
+  </si>
+  <si>
+    <t>D1146613</t>
+  </si>
+  <si>
+    <t>D1161811</t>
+  </si>
+  <si>
+    <t>吳熲智</t>
+  </si>
+  <si>
+    <t>D1169601</t>
+  </si>
+  <si>
+    <t>靜玉</t>
+  </si>
+  <si>
+    <t>D1169867</t>
+  </si>
+  <si>
+    <t>李慧媛</t>
+  </si>
+  <si>
+    <t>D1177175</t>
+  </si>
+  <si>
+    <t>黃士維</t>
+  </si>
+  <si>
+    <t>D1183131</t>
+  </si>
+  <si>
+    <t>謝少榕</t>
+  </si>
+  <si>
+    <t>D1183216</t>
+  </si>
+  <si>
+    <t>呂昕柔</t>
+  </si>
+  <si>
+    <t>D1183258</t>
+  </si>
+  <si>
+    <t>涂芷軒</t>
+  </si>
+  <si>
+    <t>D1183259</t>
+  </si>
+  <si>
+    <t>D1242418</t>
+  </si>
+  <si>
+    <t>楊哲安</t>
+  </si>
+  <si>
+    <t>D124241i</t>
+  </si>
+  <si>
+    <t>D1268913</t>
+  </si>
+  <si>
+    <t>謝予霏</t>
+  </si>
+  <si>
+    <t>謝孜昀</t>
+  </si>
+  <si>
+    <t>D1269515</t>
+  </si>
+  <si>
+    <t>高書閩</t>
+  </si>
+  <si>
+    <t>D1276456</t>
+  </si>
+  <si>
+    <t>邱芊瑜</t>
+  </si>
+  <si>
+    <t>邱芊瑜」</t>
+  </si>
+  <si>
+    <t>D1309431</t>
+  </si>
+  <si>
+    <t>陳翊猷</t>
+  </si>
+  <si>
+    <t>M1402019</t>
+  </si>
+  <si>
+    <t>張宏修</t>
+  </si>
+  <si>
+    <t>WebCralwer1</t>
+  </si>
+  <si>
+    <t>WebCrawler2</t>
+  </si>
+  <si>
     <t>DataProcess</t>
   </si>
   <si>
     <t>DataVisual</t>
-  </si>
-  <si>
-    <t>WebCralwer1</t>
-  </si>
-  <si>
-    <t>WebCrawler2</t>
   </si>
   <si>
     <t>M1202150</t>
@@ -220,13 +637,13 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -890,6 +1307,2696 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>85.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>87.0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>81.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>87.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>82.0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>88.0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>46.0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="3">
+        <v>85.0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>88.0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>67.0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="3">
+        <v>85.0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>81.0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>54.0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>87.0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>69.0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>74.0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>88.0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="3">
+        <v>85.0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>87.0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>86.0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>81.0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>88.0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>54.0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>63.0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>86.0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>88.0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>74.0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>88.0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K63" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J65" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="K65" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H67" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I67" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J67" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K67" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>88.0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I68" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J68" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K69" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>82.0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>82.0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="I71" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="J71" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="K71" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -913,229 +4020,229 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="5">
-        <v>90.0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>90.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>80.0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>80.0</v>
-      </c>
-      <c r="G2" s="5">
+        <v>179</v>
+      </c>
+      <c r="C2" s="3">
         <v>46.0</v>
       </c>
-      <c r="H2" s="5">
-        <v>90.0</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="D2" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="E2" s="3">
         <v>94.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>80.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="5">
-        <v>80.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="5">
+        <v>181</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="3">
         <v>72.0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="F4" s="5">
+        <v>183</v>
+      </c>
+      <c r="C4" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="I4" s="3">
         <v>72.0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>93.0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>100.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>90.0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>90.0</v>
-      </c>
-      <c r="F5" s="5">
+        <v>185</v>
+      </c>
+      <c r="C5" s="3">
+        <v>73.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="I5" s="3">
         <v>88.0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>73.0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>100.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="5">
-        <v>90.0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>90.0</v>
+        <v>187</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>100.0</v>
       </c>
       <c r="E6" s="6">
         <v>100.0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="I6" s="3">
         <v>92.0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>100.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5">
-        <v>90.0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>90.0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>90.0</v>
-      </c>
-      <c r="F7" s="5">
+        <v>189</v>
+      </c>
+      <c r="C7" s="3">
+        <v>72.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="I7" s="3">
         <v>92.0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>72.0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>100.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="5">
+        <v>191</v>
+      </c>
+      <c r="C8" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="3">
         <v>95.0</v>
       </c>
-      <c r="D8" s="5">
-        <v>90.0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="H8" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="I8" s="3">
         <v>92.0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>90.0</v>
       </c>
     </row>
   </sheetData>

--- a/score.xlsx
+++ b/score.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="183">
   <si>
     <t>學號</t>
   </si>
@@ -177,9 +177,6 @@
     <t>林映涵</t>
   </si>
   <si>
-    <t>D1085718</t>
-  </si>
-  <si>
     <t>D1121018</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>游雅筑</t>
   </si>
   <si>
-    <t xml:space="preserve">D1145380 </t>
-  </si>
-  <si>
     <t>D1145452</t>
   </si>
   <si>
@@ -339,9 +333,6 @@
     <t>王宗竣</t>
   </si>
   <si>
-    <t>D114558t</t>
-  </si>
-  <si>
     <t>D1145609</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
     <t>D1145613</t>
   </si>
   <si>
-    <t xml:space="preserve"> 洪儀</t>
-  </si>
-  <si>
     <t>洪儀</t>
   </si>
   <si>
@@ -444,9 +432,6 @@
     <t>洪宏勝</t>
   </si>
   <si>
-    <t>D1146613</t>
-  </si>
-  <si>
     <t>D1161811</t>
   </si>
   <si>
@@ -483,33 +468,24 @@
     <t>呂昕柔</t>
   </si>
   <si>
-    <t>D1183258</t>
+    <t>D1183259</t>
   </si>
   <si>
     <t>涂芷軒</t>
   </si>
   <si>
-    <t>D1183259</t>
-  </si>
-  <si>
     <t>D1242418</t>
   </si>
   <si>
     <t>楊哲安</t>
   </si>
   <si>
-    <t>D124241i</t>
-  </si>
-  <si>
     <t>D1268913</t>
   </si>
   <si>
     <t>謝予霏</t>
   </si>
   <si>
-    <t>謝孜昀</t>
-  </si>
-  <si>
     <t>D1269515</t>
   </si>
   <si>
@@ -520,9 +496,6 @@
   </si>
   <si>
     <t>邱芊瑜</t>
-  </si>
-  <si>
-    <t>邱芊瑜」</t>
   </si>
   <si>
     <t>D1309431</t>
@@ -1504,7 +1477,7 @@
         <v>100.0</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="F6" s="3">
         <v>87.0</v>
@@ -1533,34 +1506,34 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E7" s="3">
-        <v>81.0</v>
+        <v>87.0</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="H7" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I7" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J7" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K7" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>46</v>
@@ -1568,10 +1541,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3">
         <v>100.0</v>
@@ -1580,25 +1553,25 @@
         <v>100.0</v>
       </c>
       <c r="E8" s="3">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="F8" s="3">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="G8" s="3">
         <v>100.0</v>
       </c>
       <c r="H8" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" s="3">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="K8" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>46</v>
@@ -1606,10 +1579,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3">
         <v>100.0</v>
@@ -1618,7 +1591,7 @@
         <v>100.0</v>
       </c>
       <c r="E9" s="3">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
       <c r="F9" s="3">
         <v>100.0</v>
@@ -1630,7 +1603,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J9" s="3">
         <v>80.0</v>
@@ -1644,10 +1617,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3">
         <v>100.0</v>
@@ -1656,25 +1629,25 @@
         <v>100.0</v>
       </c>
       <c r="E10" s="3">
-        <v>94.0</v>
+        <v>100.0</v>
       </c>
       <c r="F10" s="3">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="G10" s="3">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="I10" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="J10" s="3">
-        <v>80.0</v>
+        <v>90.0</v>
       </c>
       <c r="K10" s="3">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>46</v>
@@ -1682,10 +1655,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3">
         <v>100.0</v>
@@ -1694,25 +1667,25 @@
         <v>100.0</v>
       </c>
       <c r="E11" s="3">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
       <c r="F11" s="3">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="G11" s="3">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="H11" s="3">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="I11" s="3">
-        <v>90.0</v>
+        <v>80.0</v>
       </c>
       <c r="J11" s="3">
-        <v>90.0</v>
+        <v>70.0</v>
       </c>
       <c r="K11" s="3">
-        <v>80.0</v>
+        <v>90.0</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>46</v>
@@ -1720,37 +1693,37 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="D12" s="3">
         <v>100.0</v>
       </c>
       <c r="E12" s="3">
-        <v>94.0</v>
+        <v>82.0</v>
       </c>
       <c r="F12" s="3">
         <v>80.0</v>
       </c>
       <c r="G12" s="3">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
       <c r="H12" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="I12" s="3">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="J12" s="3">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="K12" s="3">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>46</v>
@@ -1758,37 +1731,37 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
       <c r="D13" s="3">
         <v>100.0</v>
       </c>
       <c r="E13" s="3">
-        <v>82.0</v>
+        <v>88.0</v>
       </c>
       <c r="F13" s="3">
-        <v>80.0</v>
+        <v>93.0</v>
       </c>
       <c r="G13" s="3">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
       <c r="H13" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I13" s="3">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="J13" s="3">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="K13" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>46</v>
@@ -1796,10 +1769,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3">
         <v>100.0</v>
@@ -1808,10 +1781,10 @@
         <v>100.0</v>
       </c>
       <c r="E14" s="3">
-        <v>88.0</v>
+        <v>94.0</v>
       </c>
       <c r="F14" s="3">
-        <v>93.0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" s="3">
         <v>100.0</v>
@@ -1820,13 +1793,13 @@
         <v>100.0</v>
       </c>
       <c r="I14" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" s="3">
         <v>80.0</v>
       </c>
       <c r="K14" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>46</v>
@@ -1834,13 +1807,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="D15" s="3">
         <v>100.0</v>
@@ -1849,7 +1822,7 @@
         <v>94.0</v>
       </c>
       <c r="F15" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="G15" s="3">
         <v>100.0</v>
@@ -1858,10 +1831,10 @@
         <v>100.0</v>
       </c>
       <c r="I15" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J15" s="3">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="K15" s="3">
         <v>0.0</v>
@@ -1872,34 +1845,34 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3">
-        <v>95.0</v>
+        <v>90.0</v>
       </c>
       <c r="D16" s="3">
         <v>100.0</v>
       </c>
       <c r="E16" s="3">
-        <v>94.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="3">
-        <v>100.0</v>
+        <v>46.0</v>
       </c>
       <c r="G16" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="H16" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="I16" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="J16" s="3">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="K16" s="3">
         <v>0.0</v>
@@ -1910,10 +1883,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3">
         <v>90.0</v>
@@ -1922,25 +1895,25 @@
         <v>100.0</v>
       </c>
       <c r="E17" s="3">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
       <c r="F17" s="3">
-        <v>46.0</v>
+        <v>93.0</v>
       </c>
       <c r="G17" s="3">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="H17" s="3">
         <v>0.0</v>
       </c>
       <c r="I17" s="3">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="J17" s="3">
         <v>70.0</v>
       </c>
       <c r="K17" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>46</v>
@@ -1948,34 +1921,34 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="3">
-        <v>90.0</v>
+        <v>85.0</v>
       </c>
       <c r="D18" s="3">
         <v>100.0</v>
       </c>
       <c r="E18" s="3">
-        <v>94.0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="3">
-        <v>93.0</v>
+        <v>80.0</v>
       </c>
       <c r="G18" s="3">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" s="3">
         <v>0.0</v>
       </c>
       <c r="I18" s="3">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="J18" s="3">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="K18" s="3">
         <v>100.0</v>
@@ -1986,34 +1959,34 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3">
-        <v>85.0</v>
+        <v>95.0</v>
       </c>
       <c r="D19" s="3">
         <v>100.0</v>
       </c>
       <c r="E19" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="F19" s="3">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="G19" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="H19" s="3">
         <v>0.0</v>
       </c>
       <c r="I19" s="3">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="J19" s="3">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="K19" s="3">
         <v>100.0</v>
@@ -2024,13 +1997,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="3">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
       <c r="D20" s="3">
         <v>100.0</v>
@@ -2062,25 +2035,25 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="3">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="D21" s="3">
         <v>100.0</v>
       </c>
       <c r="E21" s="3">
-        <v>100.0</v>
+        <v>88.0</v>
       </c>
       <c r="F21" s="3">
-        <v>100.0</v>
+        <v>67.0</v>
       </c>
       <c r="G21" s="3">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="H21" s="3">
         <v>0.0</v>
@@ -2100,22 +2073,22 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="3">
-        <v>95.0</v>
+        <v>85.0</v>
       </c>
       <c r="D22" s="3">
         <v>100.0</v>
       </c>
       <c r="E22" s="3">
-        <v>88.0</v>
+        <v>93.0</v>
       </c>
       <c r="F22" s="3">
-        <v>67.0</v>
+        <v>0.0</v>
       </c>
       <c r="G22" s="3">
         <v>80.0</v>
@@ -2127,10 +2100,10 @@
         <v>100.0</v>
       </c>
       <c r="J22" s="3">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
       <c r="K22" s="3">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>46</v>
@@ -2138,25 +2111,25 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3">
-        <v>85.0</v>
+        <v>95.0</v>
       </c>
       <c r="D23" s="3">
         <v>100.0</v>
       </c>
       <c r="E23" s="3">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="F23" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="G23" s="3">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="H23" s="3">
         <v>0.0</v>
@@ -2165,10 +2138,10 @@
         <v>100.0</v>
       </c>
       <c r="J23" s="3">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="K23" s="3">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>46</v>
@@ -2176,10 +2149,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="3">
         <v>95.0</v>
@@ -2188,22 +2161,22 @@
         <v>100.0</v>
       </c>
       <c r="E24" s="3">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="F24" s="3">
         <v>100.0</v>
       </c>
       <c r="G24" s="3">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="H24" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="I24" s="3">
         <v>100.0</v>
       </c>
       <c r="J24" s="3">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
       <c r="K24" s="3">
         <v>100.0</v>
@@ -2214,34 +2187,34 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" s="3">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
       <c r="D25" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="E25" s="3">
         <v>93.0</v>
       </c>
       <c r="F25" s="3">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="G25" s="3">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="H25" s="3">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="I25" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="J25" s="3">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="K25" s="3">
         <v>100.0</v>
@@ -2252,37 +2225,37 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="D26" s="3">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="E26" s="3">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="F26" s="3">
-        <v>93.0</v>
+        <v>54.0</v>
       </c>
       <c r="G26" s="3">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="H26" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="I26" s="3">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="J26" s="3">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="K26" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>46</v>
@@ -2290,34 +2263,34 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C27" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D27" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E27" s="3">
-        <v>93.0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" s="3">
         <v>0.0</v>
       </c>
       <c r="G27" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="H27" s="3">
         <v>0.0</v>
       </c>
       <c r="I27" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J27" s="3">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="K27" s="3">
         <v>0.0</v>
@@ -2328,34 +2301,34 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" s="3">
-        <v>90.0</v>
+        <v>95.0</v>
       </c>
       <c r="D28" s="3">
         <v>100.0</v>
       </c>
       <c r="E28" s="3">
-        <v>81.0</v>
+        <v>100.0</v>
       </c>
       <c r="F28" s="3">
-        <v>54.0</v>
+        <v>87.0</v>
       </c>
       <c r="G28" s="3">
         <v>80.0</v>
       </c>
       <c r="H28" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I28" s="3">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="J28" s="3">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="K28" s="3">
         <v>90.0</v>
@@ -2366,10 +2339,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C29" s="3">
         <v>100.0</v>
@@ -2378,16 +2351,16 @@
         <v>100.0</v>
       </c>
       <c r="E29" s="3">
-        <v>0.0</v>
+        <v>69.0</v>
       </c>
       <c r="F29" s="3">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
       <c r="G29" s="3">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="H29" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I29" s="3">
         <v>100.0</v>
@@ -2396,7 +2369,7 @@
         <v>80.0</v>
       </c>
       <c r="K29" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>46</v>
@@ -2404,37 +2377,37 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C30" s="3">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
       <c r="D30" s="3">
         <v>100.0</v>
       </c>
       <c r="E30" s="3">
-        <v>100.0</v>
+        <v>88.0</v>
       </c>
       <c r="F30" s="3">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
       <c r="G30" s="3">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
       <c r="H30" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="I30" s="3">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="J30" s="3">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="K30" s="3">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>46</v>
@@ -2442,34 +2415,34 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C31" s="3">
-        <v>100.0</v>
+        <v>85.0</v>
       </c>
       <c r="D31" s="3">
         <v>100.0</v>
       </c>
       <c r="E31" s="3">
-        <v>69.0</v>
+        <v>87.0</v>
       </c>
       <c r="F31" s="3">
-        <v>74.0</v>
+        <v>86.0</v>
       </c>
       <c r="G31" s="3">
         <v>100.0</v>
       </c>
       <c r="H31" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="I31" s="3">
         <v>100.0</v>
       </c>
       <c r="J31" s="3">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="K31" s="3">
         <v>100.0</v>
@@ -2480,10 +2453,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C32" s="3">
         <v>100.0</v>
@@ -2492,22 +2465,22 @@
         <v>100.0</v>
       </c>
       <c r="E32" s="3">
-        <v>88.0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" s="3">
-        <v>100.0</v>
+        <v>81.0</v>
       </c>
       <c r="G32" s="3">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="H32" s="3">
         <v>0.0</v>
       </c>
       <c r="I32" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="J32" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K32" s="3">
         <v>0.0</v>
@@ -2518,37 +2491,37 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33" s="3">
-        <v>85.0</v>
+        <v>100.0</v>
       </c>
       <c r="D33" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="E33" s="3">
-        <v>87.0</v>
+        <v>88.0</v>
       </c>
       <c r="F33" s="3">
-        <v>86.0</v>
+        <v>54.0</v>
       </c>
       <c r="G33" s="3">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
       <c r="H33" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="I33" s="3">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
       <c r="J33" s="3">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="K33" s="3">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>46</v>
@@ -2556,37 +2529,37 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C34" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="D34" s="3">
         <v>100.0</v>
       </c>
       <c r="E34" s="3">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
       <c r="F34" s="3">
-        <v>81.0</v>
+        <v>100.0</v>
       </c>
       <c r="G34" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="H34" s="3">
         <v>0.0</v>
       </c>
       <c r="I34" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J34" s="3">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="K34" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>46</v>
@@ -2594,22 +2567,22 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C35" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="D35" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E35" s="3">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
       <c r="F35" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="G35" s="3">
         <v>0.0</v>
@@ -2618,10 +2591,10 @@
         <v>0.0</v>
       </c>
       <c r="I35" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="J35" s="3">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="K35" s="3">
         <v>0.0</v>
@@ -2632,37 +2605,37 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C36" s="3">
         <v>100.0</v>
       </c>
       <c r="D36" s="3">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="E36" s="3">
-        <v>88.0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" s="3">
-        <v>54.0</v>
+        <v>93.0</v>
       </c>
       <c r="G36" s="3">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="H36" s="3">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c r="I36" s="3">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
       <c r="J36" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K36" s="3">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>46</v>
@@ -2670,37 +2643,37 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C37" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D37" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E37" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="F37" s="3">
         <v>100.0</v>
       </c>
       <c r="G37" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="H37" s="3">
         <v>0.0</v>
       </c>
       <c r="I37" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J37" s="3">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="K37" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>46</v>
@@ -2708,13 +2681,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C38" s="3">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" s="3">
         <v>100.0</v>
@@ -2726,19 +2699,19 @@
         <v>0.0</v>
       </c>
       <c r="G38" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="H38" s="3">
         <v>0.0</v>
       </c>
       <c r="I38" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="J38" s="3">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
       <c r="K38" s="3">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>46</v>
@@ -2746,22 +2719,22 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C39" s="3">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="E39" s="3">
-        <v>63.0</v>
+        <v>0.0</v>
       </c>
       <c r="F39" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="G39" s="3">
         <v>0.0</v>
@@ -2770,10 +2743,10 @@
         <v>0.0</v>
       </c>
       <c r="I39" s="3">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="J39" s="3">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="K39" s="3">
         <v>0.0</v>
@@ -2784,16 +2757,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C40" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="E40" s="3">
         <v>0.0</v>
@@ -2808,10 +2781,10 @@
         <v>0.0</v>
       </c>
       <c r="I40" s="3">
-        <v>100.0</v>
+        <v>40.0</v>
       </c>
       <c r="J40" s="3">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="K40" s="3">
         <v>0.0</v>
@@ -2822,37 +2795,37 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C41" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="D41" s="3">
         <v>100.0</v>
       </c>
       <c r="E41" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="G41" s="3">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="H41" s="3">
         <v>0.0</v>
       </c>
       <c r="I41" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="J41" s="3">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="K41" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>46</v>
@@ -2860,25 +2833,25 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C42" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D42" s="3">
         <v>100.0</v>
       </c>
       <c r="E42" s="3">
-        <v>94.0</v>
+        <v>100.0</v>
       </c>
       <c r="F42" s="3">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="G42" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="H42" s="3">
         <v>0.0</v>
@@ -2887,10 +2860,10 @@
         <v>0.0</v>
       </c>
       <c r="J42" s="3">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="K42" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>46</v>
@@ -2898,22 +2871,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C43" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D43" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E43" s="3">
         <v>0.0</v>
       </c>
       <c r="F43" s="3">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="G43" s="3">
         <v>0.0</v>
@@ -2925,7 +2898,7 @@
         <v>100.0</v>
       </c>
       <c r="J43" s="3">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
       <c r="K43" s="3">
         <v>0.0</v>
@@ -2936,22 +2909,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C44" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D44" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E44" s="3">
         <v>0.0</v>
       </c>
       <c r="F44" s="3">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="G44" s="3">
         <v>0.0</v>
@@ -2960,13 +2933,13 @@
         <v>0.0</v>
       </c>
       <c r="I44" s="3">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="J44" s="3">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="K44" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>46</v>
@@ -2974,10 +2947,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C45" s="3">
         <v>90.0</v>
@@ -2986,22 +2959,22 @@
         <v>100.0</v>
       </c>
       <c r="E45" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="F45" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="G45" s="3">
-        <v>80.0</v>
+        <v>90.0</v>
       </c>
       <c r="H45" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="I45" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J45" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="K45" s="3">
         <v>0.0</v>
@@ -3012,10 +2985,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C46" s="3">
         <v>100.0</v>
@@ -3024,22 +2997,22 @@
         <v>100.0</v>
       </c>
       <c r="E46" s="3">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
       <c r="F46" s="3">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="G46" s="3">
         <v>100.0</v>
       </c>
       <c r="H46" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I46" s="3">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="J46" s="3">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="K46" s="3">
         <v>100.0</v>
@@ -3050,25 +3023,25 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C47" s="3">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="D47" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="E47" s="3">
         <v>0.0</v>
       </c>
       <c r="F47" s="3">
-        <v>93.0</v>
+        <v>86.0</v>
       </c>
       <c r="G47" s="3">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
       <c r="H47" s="3">
         <v>0.0</v>
@@ -3077,7 +3050,7 @@
         <v>100.0</v>
       </c>
       <c r="J47" s="3">
-        <v>70.0</v>
+        <v>90.0</v>
       </c>
       <c r="K47" s="3">
         <v>0.0</v>
@@ -3088,13 +3061,13 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C48" s="3">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="D48" s="3">
         <v>100.0</v>
@@ -3103,22 +3076,22 @@
         <v>0.0</v>
       </c>
       <c r="F48" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" s="3">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="H48" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="I48" s="3">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="J48" s="3">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="K48" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>46</v>
@@ -3126,10 +3099,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C49" s="3">
         <v>90.0</v>
@@ -3138,25 +3111,25 @@
         <v>100.0</v>
       </c>
       <c r="E49" s="3">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
       <c r="F49" s="3">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="G49" s="3">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="H49" s="3">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="I49" s="3">
         <v>100.0</v>
       </c>
       <c r="J49" s="3">
-        <v>90.0</v>
+        <v>80.0</v>
       </c>
       <c r="K49" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>46</v>
@@ -3164,10 +3137,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C50" s="3">
         <v>100.0</v>
@@ -3176,22 +3149,22 @@
         <v>100.0</v>
       </c>
       <c r="E50" s="3">
-        <v>94.0</v>
+        <v>93.0</v>
       </c>
       <c r="F50" s="3">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="G50" s="3">
         <v>100.0</v>
       </c>
       <c r="H50" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="I50" s="3">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="J50" s="3">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="K50" s="3">
         <v>100.0</v>
@@ -3202,34 +3175,34 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C51" s="3">
         <v>95.0</v>
       </c>
       <c r="D51" s="3">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="E51" s="3">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
       <c r="F51" s="3">
-        <v>86.0</v>
+        <v>100.0</v>
       </c>
       <c r="G51" s="3">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
       <c r="H51" s="3">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="I51" s="3">
         <v>100.0</v>
       </c>
       <c r="J51" s="3">
-        <v>90.0</v>
+        <v>60.0</v>
       </c>
       <c r="K51" s="3">
         <v>0.0</v>
@@ -3240,37 +3213,37 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C52" s="3">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
       <c r="D52" s="3">
         <v>100.0</v>
       </c>
       <c r="E52" s="3">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
       <c r="F52" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="G52" s="3">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="H52" s="3">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="I52" s="3">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="J52" s="3">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="K52" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>46</v>
@@ -3278,37 +3251,37 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C53" s="3">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c r="D53" s="3">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="E53" s="3">
-        <v>94.0</v>
+        <v>0.0</v>
       </c>
       <c r="F53" s="3">
-        <v>93.0</v>
+        <v>0.0</v>
       </c>
       <c r="G53" s="3">
-        <v>100.0</v>
+        <v>40.0</v>
       </c>
       <c r="H53" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="I53" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="J53" s="3">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="K53" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>46</v>
@@ -3316,10 +3289,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="C54" s="3">
         <v>0.0</v>
@@ -3328,13 +3301,13 @@
         <v>0.0</v>
       </c>
       <c r="E54" s="3">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
       <c r="F54" s="3">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
       <c r="G54" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="H54" s="3">
         <v>0.0</v>
@@ -3354,10 +3327,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3">
         <v>100.0</v>
@@ -3366,22 +3339,22 @@
         <v>100.0</v>
       </c>
       <c r="E55" s="3">
-        <v>93.0</v>
+        <v>88.0</v>
       </c>
       <c r="F55" s="3">
-        <v>93.0</v>
+        <v>61.0</v>
       </c>
       <c r="G55" s="3">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
       <c r="H55" s="3">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c r="I55" s="3">
         <v>100.0</v>
       </c>
       <c r="J55" s="3">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="K55" s="3">
         <v>100.0</v>
@@ -3392,13 +3365,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C56" s="3">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
       <c r="D56" s="3">
         <v>100.0</v>
@@ -3407,22 +3380,22 @@
         <v>94.0</v>
       </c>
       <c r="F56" s="3">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="G56" s="3">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="H56" s="3">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="I56" s="3">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="J56" s="3">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="K56" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>46</v>
@@ -3430,31 +3403,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C57" s="3">
         <v>100.0</v>
       </c>
       <c r="D57" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="E57" s="3">
-        <v>94.0</v>
+        <v>100.0</v>
       </c>
       <c r="F57" s="3">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="G57" s="3">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="H57" s="3">
         <v>100.0</v>
       </c>
       <c r="I57" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="J57" s="3">
         <v>80.0</v>
@@ -3468,37 +3441,37 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C58" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="D58" s="3">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="E58" s="3">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
       <c r="F58" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="G58" s="3">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="H58" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I58" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J58" s="3">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
       <c r="K58" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>46</v>
@@ -3506,37 +3479,37 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C59" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="D59" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E59" s="3">
-        <v>88.0</v>
+        <v>100.0</v>
       </c>
       <c r="F59" s="3">
-        <v>74.0</v>
+        <v>100.0</v>
       </c>
       <c r="G59" s="3">
         <v>100.0</v>
       </c>
       <c r="H59" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I59" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J59" s="3">
         <v>80.0</v>
       </c>
       <c r="K59" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>46</v>
@@ -3544,10 +3517,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C60" s="3">
         <v>100.0</v>
@@ -3562,7 +3535,7 @@
         <v>61.0</v>
       </c>
       <c r="G60" s="3">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
       <c r="H60" s="3">
         <v>0.0</v>
@@ -3571,7 +3544,7 @@
         <v>100.0</v>
       </c>
       <c r="J60" s="3">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="K60" s="3">
         <v>100.0</v>
@@ -3582,10 +3555,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C61" s="3">
         <v>0.0</v>
@@ -3594,7 +3567,7 @@
         <v>0.0</v>
       </c>
       <c r="E61" s="3">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="F61" s="3">
         <v>0.0</v>
@@ -3612,7 +3585,7 @@
         <v>0.0</v>
       </c>
       <c r="K61" s="3">
-        <v>90.0</v>
+        <v>0.0</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>46</v>
@@ -3620,381 +3593,39 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C62" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="D62" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="E62" s="3">
-        <v>94.0</v>
+        <v>82.0</v>
       </c>
       <c r="F62" s="3">
         <v>93.0</v>
       </c>
       <c r="G62" s="3">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="H62" s="3">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="I62" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="J62" s="3">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="K62" s="3">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E63" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F63" s="3">
-        <v>93.0</v>
-      </c>
-      <c r="G63" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="H63" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="I63" s="3">
-        <v>90.0</v>
-      </c>
-      <c r="J63" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="K63" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D64" s="3">
-        <v>90.0</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J64" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J65" s="3">
-        <v>70.0</v>
-      </c>
-      <c r="K65" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="3">
-        <v>90.0</v>
-      </c>
-      <c r="D66" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>94.0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C67" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="D67" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="E67" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F67" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="G67" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="H67" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="I67" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="J67" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="K67" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C68" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="D68" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="E68" s="3">
-        <v>88.0</v>
-      </c>
-      <c r="F68" s="3">
-        <v>61.0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="H68" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I68" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="J68" s="3">
-        <v>90.0</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H69" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I69" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J69" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="K69" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E70" s="3">
-        <v>82.0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71" s="3">
-        <v>90.0</v>
-      </c>
-      <c r="D71" s="3">
-        <v>90.0</v>
-      </c>
-      <c r="E71" s="3">
-        <v>82.0</v>
-      </c>
-      <c r="F71" s="3">
-        <v>93.0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="H71" s="3">
-        <v>90.0</v>
-      </c>
-      <c r="I71" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="J71" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="K71" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="L71" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4024,19 +3655,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>8</v>
@@ -4044,10 +3675,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C2" s="3">
         <v>46.0</v>
@@ -4073,10 +3704,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3">
         <v>0.0</v>
@@ -4102,10 +3733,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3">
         <v>93.0</v>
@@ -4131,10 +3762,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3">
         <v>73.0</v>
@@ -4160,10 +3791,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C6" s="3">
         <v>100.0</v>
@@ -4189,10 +3820,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C7" s="3">
         <v>72.0</v>
@@ -4218,10 +3849,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C8" s="3">
         <v>100.0</v>

--- a/score.xlsx
+++ b/score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechou/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D982D25-099C-924E-A909-2220B09546E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0109DD9E-6DA4-2B4E-B939-8C89FEB13E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="840" windowWidth="32000" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機器學習與Python行銷數據分析(行銷四合)" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="186">
   <si>
     <t>學號</t>
   </si>
@@ -578,11 +578,11 @@
   </si>
   <si>
     <t>D1061231</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>楊鈞喨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>na</t>
@@ -590,6 +590,14 @@
   </si>
   <si>
     <t>小考平均</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GA認證(總+5)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>早鳥(平+5)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -625,15 +633,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Heiti TC"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -671,17 +679,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1330,77 +1341,84 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="3">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3">
-        <v>100</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4">
+        <f>AVERAGE(F2:N2)</f>
+        <v>64.444444444444443</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" s="3">
         <v>100</v>
@@ -1409,85 +1427,89 @@
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K2" s="3">
-        <v>100</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="5">
-        <f>AVERAGE(C2:K2)</f>
-        <v>64.444444444444443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>100</v>
+      </c>
+      <c r="M2" s="3">
+        <v>80</v>
+      </c>
+      <c r="N2" s="3">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3">
-        <v>100</v>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E61" si="0">AVERAGE(F3:N3)</f>
+        <v>73.666666666666671</v>
       </c>
       <c r="F3" s="3">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3">
+        <v>100</v>
+      </c>
+      <c r="H3" s="3">
+        <v>100</v>
+      </c>
+      <c r="I3" s="3">
         <v>93</v>
       </c>
-      <c r="G3" s="3">
-        <v>90</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>100</v>
-      </c>
       <c r="J3" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" ref="M3:M61" si="0">AVERAGE(C3:K3)</f>
-        <v>73.666666666666671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L3" s="3">
+        <v>100</v>
+      </c>
+      <c r="M3" s="3">
+        <v>80</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>20.555555555555557</v>
+      </c>
+      <c r="F4" s="3">
         <v>85</v>
       </c>
-      <c r="D4" s="3">
-        <v>100</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -1501,28 +1523,30 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" si="0"/>
-        <v>20.555555555555557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="3">
@@ -1543,113 +1567,125 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="3">
-        <v>80</v>
-      </c>
-      <c r="D6" s="3">
-        <v>100</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>73.111111111111114</v>
+      </c>
+      <c r="F6" s="3">
+        <v>80</v>
+      </c>
+      <c r="G6" s="3">
+        <v>100</v>
+      </c>
+      <c r="H6" s="3">
         <v>81</v>
       </c>
-      <c r="F6" s="3">
+      <c r="I6" s="3">
         <v>87</v>
       </c>
-      <c r="G6" s="3">
-        <v>90</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
+        <v>90</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
         <v>50</v>
       </c>
-      <c r="J6" s="3">
+      <c r="M6" s="3">
         <v>70</v>
       </c>
-      <c r="K6" s="3">
-        <v>100</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="0"/>
-        <v>73.111111111111114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N6" s="3">
+        <v>100</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="3">
-        <v>100</v>
-      </c>
-      <c r="D7" s="3">
-        <v>100</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>97.777777777777771</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3">
         <v>87</v>
       </c>
-      <c r="F7" s="3">
+      <c r="I7" s="3">
         <v>93</v>
       </c>
-      <c r="G7" s="3">
-        <v>100</v>
-      </c>
-      <c r="H7" s="3">
-        <v>100</v>
-      </c>
-      <c r="I7" s="3">
-        <v>100</v>
-      </c>
       <c r="J7" s="3">
         <v>100</v>
       </c>
       <c r="K7" s="3">
         <v>100</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="0"/>
-        <v>97.777777777777771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L7" s="3">
+        <v>100</v>
+      </c>
+      <c r="M7" s="3">
+        <v>100</v>
+      </c>
+      <c r="N7" s="3">
+        <v>100</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="3">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>64.444444444444443</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -1658,502 +1694,544 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="0"/>
-        <v>64.444444444444443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>80</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="3">
-        <v>100</v>
-      </c>
-      <c r="D9" s="3">
-        <v>100</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>74.888888888888886</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
         <v>94</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="0"/>
-        <v>74.888888888888886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>80</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="3">
-        <v>100</v>
-      </c>
-      <c r="D10" s="3">
-        <v>100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>100</v>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>89.222222222222229</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>93</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>60</v>
       </c>
-      <c r="H10" s="3">
-        <v>90</v>
-      </c>
-      <c r="I10" s="3">
-        <v>90</v>
-      </c>
-      <c r="J10" s="3">
-        <v>90</v>
-      </c>
       <c r="K10" s="3">
-        <v>80</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="0"/>
-        <v>89.222222222222229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="L10" s="3">
+        <v>90</v>
+      </c>
+      <c r="M10" s="3">
+        <v>90</v>
+      </c>
+      <c r="N10" s="3">
+        <v>80</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="3">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3">
-        <v>100</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>88.222222222222229</v>
+      </c>
+      <c r="F11" s="3">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3">
+        <v>100</v>
+      </c>
+      <c r="H11" s="3">
         <v>94</v>
       </c>
-      <c r="F11" s="3">
-        <v>80</v>
-      </c>
-      <c r="G11" s="3">
-        <v>80</v>
-      </c>
-      <c r="H11" s="3">
-        <v>100</v>
-      </c>
       <c r="I11" s="3">
         <v>80</v>
       </c>
       <c r="J11" s="3">
+        <v>80</v>
+      </c>
+      <c r="K11" s="3">
+        <v>100</v>
+      </c>
+      <c r="L11" s="3">
+        <v>80</v>
+      </c>
+      <c r="M11" s="3">
         <v>70</v>
       </c>
-      <c r="K11" s="3">
-        <v>90</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" si="0"/>
-        <v>88.222222222222229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N11" s="3">
+        <v>90</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>60.777777777777779</v>
+      </c>
+      <c r="F12" s="3">
         <v>95</v>
       </c>
-      <c r="D12" s="3">
-        <v>100</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>82</v>
       </c>
-      <c r="F12" s="3">
-        <v>80</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
+        <v>80</v>
+      </c>
+      <c r="J12" s="3">
         <v>70</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>60</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>60</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" si="0"/>
-        <v>60.777777777777779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="3">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3">
-        <v>100</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>95.666666666666671</v>
+      </c>
+      <c r="F13" s="3">
+        <v>100</v>
+      </c>
+      <c r="G13" s="3">
+        <v>100</v>
+      </c>
+      <c r="H13" s="3">
         <v>88</v>
       </c>
-      <c r="F13" s="3">
+      <c r="I13" s="3">
         <v>93</v>
       </c>
-      <c r="G13" s="3">
-        <v>100</v>
-      </c>
-      <c r="H13" s="3">
-        <v>100</v>
-      </c>
-      <c r="I13" s="3">
-        <v>100</v>
-      </c>
       <c r="J13" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K13" s="3">
         <v>100</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="0"/>
-        <v>95.666666666666671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L13" s="3">
+        <v>100</v>
+      </c>
+      <c r="M13" s="3">
+        <v>80</v>
+      </c>
+      <c r="N13" s="3">
+        <v>100</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="3">
-        <v>100</v>
-      </c>
-      <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>63.777777777777779</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
         <v>94</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="0"/>
-        <v>63.777777777777779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>80</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>83.222222222222229</v>
+      </c>
+      <c r="F15" s="3">
         <v>95</v>
       </c>
-      <c r="D15" s="3">
-        <v>100</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
         <v>94</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
         <v>60</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="5">
-        <f t="shared" si="0"/>
-        <v>83.222222222222229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="3">
-        <v>90</v>
-      </c>
-      <c r="D16" s="3">
-        <v>100</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="F16" s="3">
+        <v>90</v>
+      </c>
+      <c r="G16" s="3">
+        <v>100</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <v>46</v>
       </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>90</v>
-      </c>
       <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>90</v>
+      </c>
+      <c r="M16" s="3">
         <v>70</v>
       </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="5">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="3">
-        <v>90</v>
-      </c>
-      <c r="D17" s="3">
-        <v>100</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>80.777777777777771</v>
+      </c>
+      <c r="F17" s="3">
+        <v>90</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>94</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>93</v>
       </c>
-      <c r="G17" s="3">
-        <v>80</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
+        <v>80</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>70</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="5">
-        <f t="shared" si="0"/>
-        <v>80.777777777777771</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>52.777777777777779</v>
+      </c>
+      <c r="F18" s="3">
         <v>85</v>
       </c>
-      <c r="D18" s="3">
-        <v>100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>80</v>
-      </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>80</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>50</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>60</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="5">
-        <f t="shared" si="0"/>
-        <v>52.777777777777779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>86.111111111111114</v>
+      </c>
+      <c r="F19" s="3">
         <v>95</v>
       </c>
-      <c r="D19" s="3">
-        <v>100</v>
-      </c>
-      <c r="E19" s="3">
-        <v>100</v>
-      </c>
-      <c r="F19" s="3">
-        <v>100</v>
-      </c>
       <c r="G19" s="3">
         <v>100</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I19" s="3">
         <v>100</v>
       </c>
       <c r="J19" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K19" s="3">
-        <v>100</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="5">
-        <f t="shared" si="0"/>
-        <v>86.111111111111114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>100</v>
+      </c>
+      <c r="M19" s="3">
+        <v>80</v>
+      </c>
+      <c r="N19" s="3">
+        <v>100</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="3">
-        <v>100</v>
-      </c>
-      <c r="D20" s="3">
-        <v>100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>86.666666666666671</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -2162,712 +2240,772 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="5">
-        <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>80</v>
+      </c>
+      <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>78.888888888888886</v>
+      </c>
+      <c r="F21" s="3">
         <v>95</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>88</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>67</v>
       </c>
-      <c r="G21" s="3">
-        <v>80</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
         <v>80</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="5">
-        <f t="shared" si="0"/>
-        <v>78.888888888888886</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>80</v>
+      </c>
+      <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>67.555555555555557</v>
+      </c>
+      <c r="F22" s="3">
         <v>85</v>
       </c>
-      <c r="D22" s="3">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>93</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>80</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>80</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>70</v>
       </c>
-      <c r="K22" s="3">
-        <v>80</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="5">
-        <f t="shared" si="0"/>
-        <v>67.555555555555557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N22" s="3">
+        <v>80</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>15</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>86.111111111111114</v>
+      </c>
+      <c r="F23" s="3">
         <v>95</v>
       </c>
-      <c r="D23" s="3">
-        <v>100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="5">
-        <f t="shared" si="0"/>
-        <v>86.111111111111114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>80</v>
+      </c>
+      <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="F24" s="3">
         <v>95</v>
       </c>
-      <c r="D24" s="3">
-        <v>100</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>93</v>
       </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>80</v>
-      </c>
-      <c r="H24" s="3">
-        <v>90</v>
-      </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>80</v>
+      </c>
+      <c r="K24" s="3">
+        <v>90</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>70</v>
       </c>
-      <c r="K24" s="3">
-        <v>100</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="5">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="3">
-        <v>100</v>
-      </c>
-      <c r="D25" s="3">
-        <v>90</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>20</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F25" s="3">
+        <v>100</v>
+      </c>
+      <c r="G25" s="3">
+        <v>90</v>
+      </c>
+      <c r="H25" s="3">
         <v>93</v>
       </c>
-      <c r="F25" s="3">
+      <c r="I25" s="3">
         <v>93</v>
       </c>
-      <c r="G25" s="3">
-        <v>100</v>
-      </c>
-      <c r="H25" s="3">
-        <v>100</v>
-      </c>
-      <c r="I25" s="3">
-        <v>90</v>
-      </c>
       <c r="J25" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K25" s="3">
         <v>100</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25" s="5">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L25" s="3">
+        <v>90</v>
+      </c>
+      <c r="M25" s="3">
+        <v>80</v>
+      </c>
+      <c r="N25" s="3">
+        <v>100</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="3">
-        <v>90</v>
-      </c>
-      <c r="D26" s="3">
-        <v>100</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>66.111111111111114</v>
+      </c>
+      <c r="F26" s="3">
+        <v>90</v>
+      </c>
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>81</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>54</v>
       </c>
-      <c r="G26" s="3">
-        <v>80</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K26" s="3">
-        <v>90</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M26" s="5">
-        <f t="shared" si="0"/>
-        <v>66.111111111111114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>90</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="3">
-        <v>100</v>
-      </c>
-      <c r="D27" s="3">
-        <v>100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>52.222222222222221</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" s="5">
-        <f t="shared" si="0"/>
-        <v>52.222222222222221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>80</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>85.777777777777771</v>
+      </c>
+      <c r="F28" s="3">
         <v>95</v>
       </c>
-      <c r="D28" s="3">
-        <v>100</v>
-      </c>
-      <c r="E28" s="3">
-        <v>100</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
+        <v>100</v>
+      </c>
+      <c r="H28" s="3">
+        <v>100</v>
+      </c>
+      <c r="I28" s="3">
         <v>87</v>
       </c>
-      <c r="G28" s="3">
-        <v>80</v>
-      </c>
-      <c r="H28" s="3">
-        <v>100</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
+        <v>80</v>
+      </c>
+      <c r="K28" s="3">
+        <v>100</v>
+      </c>
+      <c r="L28" s="3">
         <v>60</v>
       </c>
-      <c r="J28" s="3">
+      <c r="M28" s="3">
         <v>60</v>
       </c>
-      <c r="K28" s="3">
-        <v>90</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" s="5">
-        <f t="shared" si="0"/>
-        <v>85.777777777777771</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N28" s="3">
+        <v>90</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="3">
-        <v>100</v>
-      </c>
-      <c r="D29" s="3">
-        <v>100</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>91.444444444444443</v>
+      </c>
+      <c r="F29" s="3">
+        <v>100</v>
+      </c>
+      <c r="G29" s="3">
+        <v>100</v>
+      </c>
+      <c r="H29" s="3">
         <v>69</v>
       </c>
-      <c r="F29" s="3">
+      <c r="I29" s="3">
         <v>74</v>
       </c>
-      <c r="G29" s="3">
-        <v>100</v>
-      </c>
-      <c r="H29" s="3">
-        <v>100</v>
-      </c>
-      <c r="I29" s="3">
-        <v>100</v>
-      </c>
       <c r="J29" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" s="5">
-        <f t="shared" si="0"/>
-        <v>91.444444444444443</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L29" s="3">
+        <v>100</v>
+      </c>
+      <c r="M29" s="3">
+        <v>80</v>
+      </c>
+      <c r="N29" s="3">
+        <v>100</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="3">
-        <v>100</v>
-      </c>
-      <c r="D30" s="3">
-        <v>100</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F30" s="3">
+        <v>100</v>
+      </c>
+      <c r="G30" s="3">
+        <v>100</v>
+      </c>
+      <c r="H30" s="3">
         <v>88</v>
       </c>
-      <c r="F30" s="3">
-        <v>100</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="I30" s="3">
+        <v>100</v>
+      </c>
+      <c r="J30" s="3">
         <v>70</v>
       </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>100</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" s="5">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L30" s="3">
+        <v>100</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>79.777777777777771</v>
+      </c>
+      <c r="F31" s="3">
         <v>85</v>
       </c>
-      <c r="D31" s="3">
-        <v>100</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="G31" s="3">
+        <v>100</v>
+      </c>
+      <c r="H31" s="3">
         <v>87</v>
       </c>
-      <c r="F31" s="3">
+      <c r="I31" s="3">
         <v>86</v>
       </c>
-      <c r="G31" s="3">
-        <v>100</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>100</v>
-      </c>
       <c r="J31" s="3">
+        <v>100</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>100</v>
+      </c>
+      <c r="M31" s="3">
         <v>60</v>
       </c>
-      <c r="K31" s="3">
-        <v>100</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M31" s="5">
-        <f t="shared" si="0"/>
-        <v>79.777777777777771</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N31" s="3">
+        <v>100</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="3">
-        <v>100</v>
-      </c>
-      <c r="D32" s="3">
-        <v>100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>42.333333333333336</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>81</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M32" s="5">
-        <f t="shared" si="0"/>
-        <v>42.333333333333336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="3">
-        <v>100</v>
-      </c>
-      <c r="D33" s="3">
-        <v>90</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>81.333333333333329</v>
+      </c>
+      <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>90</v>
+      </c>
+      <c r="H33" s="3">
         <v>88</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>54</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>70</v>
       </c>
-      <c r="H33" s="3">
-        <v>90</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
+        <v>90</v>
+      </c>
+      <c r="L33" s="3">
         <v>70</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>70</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M33" s="5">
-        <f t="shared" si="0"/>
-        <v>81.333333333333329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1">
+      <c r="O33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="3">
-        <v>90</v>
-      </c>
-      <c r="D34" s="3">
-        <v>100</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>83.777777777777771</v>
+      </c>
+      <c r="F34" s="3">
+        <v>90</v>
+      </c>
+      <c r="G34" s="3">
+        <v>100</v>
+      </c>
+      <c r="H34" s="3">
         <v>94</v>
       </c>
-      <c r="F34" s="3">
-        <v>100</v>
-      </c>
-      <c r="G34" s="3">
-        <v>100</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
       <c r="I34" s="3">
         <v>100</v>
       </c>
       <c r="J34" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K34" s="3">
-        <v>90</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M34" s="5">
-        <f t="shared" si="0"/>
-        <v>83.777777777777771</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>100</v>
+      </c>
+      <c r="M34" s="3">
+        <v>80</v>
+      </c>
+      <c r="N34" s="3">
+        <v>90</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="3">
-        <v>90</v>
-      </c>
-      <c r="D35" s="3">
-        <v>100</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <v>5</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>58.111111111111114</v>
+      </c>
+      <c r="F35" s="3">
+        <v>90</v>
+      </c>
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>63</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M35" s="5">
-        <f t="shared" si="0"/>
-        <v>58.111111111111114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L35" s="3">
+        <v>90</v>
+      </c>
+      <c r="M35" s="3">
+        <v>80</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="3">
-        <v>100</v>
-      </c>
-      <c r="D36" s="3">
-        <v>100</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>43.666666666666664</v>
       </c>
       <c r="F36" s="3">
+        <v>100</v>
+      </c>
+      <c r="G36" s="3">
+        <v>100</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
         <v>93</v>
       </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>100</v>
-      </c>
       <c r="J36" s="3">
         <v>0</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M36" s="5">
-        <f t="shared" si="0"/>
-        <v>43.666666666666664</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L36" s="3">
+        <v>100</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="3">
-        <v>100</v>
-      </c>
-      <c r="D37" s="3">
-        <v>100</v>
-      </c>
-      <c r="E37" s="3">
-        <v>100</v>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>86.666666666666671</v>
       </c>
       <c r="F37" s="3">
         <v>100</v>
@@ -2876,82 +3014,86 @@
         <v>100</v>
       </c>
       <c r="H37" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I37" s="3">
         <v>100</v>
       </c>
       <c r="J37" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K37" s="3">
-        <v>100</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M37" s="5">
-        <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>100</v>
+      </c>
+      <c r="M37" s="3">
+        <v>80</v>
+      </c>
+      <c r="N37" s="3">
+        <v>100</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
-        <v>100</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>29.333333333333332</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>100</v>
+      </c>
+      <c r="H38" s="3">
         <v>94</v>
       </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
       <c r="I38" s="3">
         <v>0</v>
       </c>
       <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
         <v>70</v>
       </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M38" s="5">
-        <f t="shared" si="0"/>
-        <v>29.333333333333332</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -2963,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -2971,77 +3113,81 @@
       <c r="K39" s="3">
         <v>0</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M39" s="5">
-        <f t="shared" si="0"/>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L39" s="3">
+        <v>100</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4">
+        <f t="shared" si="0"/>
+        <v>19.222222222222221</v>
       </c>
       <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
         <v>93</v>
       </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
         <v>40</v>
       </c>
-      <c r="J40" s="3">
+      <c r="M40" s="3">
         <v>40</v>
       </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M40" s="5">
-        <f t="shared" si="0"/>
-        <v>19.222222222222221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="3">
-        <v>90</v>
-      </c>
-      <c r="D41" s="3">
-        <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G41" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -3050,124 +3196,132 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M41" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="3">
-        <v>100</v>
-      </c>
-      <c r="D42" s="3">
-        <v>100</v>
-      </c>
-      <c r="E42" s="3">
-        <v>100</v>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="4">
+        <f t="shared" si="0"/>
+        <v>74.777777777777771</v>
       </c>
       <c r="F42" s="3">
+        <v>100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>100</v>
+      </c>
+      <c r="H42" s="3">
+        <v>100</v>
+      </c>
+      <c r="I42" s="3">
         <v>93</v>
       </c>
-      <c r="G42" s="3">
-        <v>100</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K42" s="3">
-        <v>100</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M42" s="5">
-        <f t="shared" si="0"/>
-        <v>74.777777777777771</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>80</v>
+      </c>
+      <c r="N42" s="3">
+        <v>100</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="3">
-        <v>100</v>
-      </c>
-      <c r="D43" s="3">
-        <v>100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4">
+        <f t="shared" si="0"/>
+        <v>51.444444444444443</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>93</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>70</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M43" s="5">
-        <f t="shared" si="0"/>
-        <v>51.444444444444443</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="3">
-        <v>100</v>
-      </c>
-      <c r="D44" s="3">
-        <v>100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>64.444444444444443</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3176,43 +3330,47 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M44" s="5">
-        <f t="shared" si="0"/>
-        <v>64.444444444444443</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>80</v>
+      </c>
+      <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="3">
-        <v>90</v>
-      </c>
-      <c r="D45" s="3">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="0"/>
+        <v>84.444444444444443</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G45" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -3221,577 +3379,639 @@
         <v>90</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M45" s="5">
-        <f t="shared" si="0"/>
-        <v>84.444444444444443</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>90</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="3">
-        <v>100</v>
-      </c>
-      <c r="D46" s="3">
-        <v>100</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="0"/>
+        <v>90.444444444444443</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>94</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>60</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>60</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M46" s="5">
-        <f t="shared" si="0"/>
-        <v>90.444444444444443</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F47" s="3">
         <v>95</v>
       </c>
-      <c r="D47" s="3">
-        <v>90</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
+        <v>90</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>86</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>70</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>90</v>
-      </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M47" s="5">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L47" s="3">
+        <v>100</v>
+      </c>
+      <c r="M47" s="3">
+        <v>90</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="0"/>
+        <v>50.555555555555557</v>
+      </c>
+      <c r="F48" s="3">
         <v>95</v>
       </c>
-      <c r="D48" s="3">
-        <v>100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>50</v>
       </c>
-      <c r="H48" s="3">
-        <v>90</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
+        <v>90</v>
+      </c>
+      <c r="L48" s="3">
         <v>60</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>60</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M48" s="5">
-        <f t="shared" si="0"/>
-        <v>50.555555555555557</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="3">
-        <v>90</v>
-      </c>
-      <c r="D49" s="3">
-        <v>100</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="0"/>
+        <v>95.222222222222229</v>
+      </c>
+      <c r="F49" s="3">
+        <v>90</v>
+      </c>
+      <c r="G49" s="3">
+        <v>100</v>
+      </c>
+      <c r="H49" s="3">
         <v>94</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>93</v>
       </c>
-      <c r="G49" s="3">
-        <v>100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>100</v>
-      </c>
       <c r="J49" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M49" s="5">
-        <f t="shared" si="0"/>
-        <v>95.222222222222229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+      <c r="M49" s="3">
+        <v>80</v>
+      </c>
+      <c r="N49" s="3">
+        <v>100</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="3">
-        <v>100</v>
-      </c>
-      <c r="D50" s="3">
-        <v>100</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>15</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="0"/>
+        <v>95.111111111111114</v>
+      </c>
+      <c r="F50" s="3">
+        <v>100</v>
+      </c>
+      <c r="G50" s="3">
+        <v>100</v>
+      </c>
+      <c r="H50" s="3">
         <v>93</v>
       </c>
-      <c r="F50" s="3">
+      <c r="I50" s="3">
         <v>93</v>
       </c>
-      <c r="G50" s="3">
-        <v>100</v>
-      </c>
-      <c r="H50" s="3">
-        <v>90</v>
-      </c>
-      <c r="I50" s="3">
-        <v>100</v>
-      </c>
       <c r="J50" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K50" s="3">
-        <v>100</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M50" s="5">
-        <f t="shared" si="0"/>
-        <v>95.111111111111114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="13">
+        <v>90</v>
+      </c>
+      <c r="L50" s="3">
+        <v>100</v>
+      </c>
+      <c r="M50" s="3">
+        <v>80</v>
+      </c>
+      <c r="N50" s="3">
+        <v>100</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="13">
       <c r="A51" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2">
+        <v>20</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="0"/>
+        <v>77.666666666666671</v>
+      </c>
+      <c r="F51" s="3">
         <v>95</v>
       </c>
-      <c r="D51" s="3">
-        <v>100</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="G51" s="3">
+        <v>100</v>
+      </c>
+      <c r="H51" s="3">
         <v>94</v>
       </c>
-      <c r="F51" s="3">
-        <v>100</v>
-      </c>
-      <c r="G51" s="3">
-        <v>100</v>
-      </c>
-      <c r="H51" s="3">
+      <c r="I51" s="3">
+        <v>100</v>
+      </c>
+      <c r="J51" s="3">
+        <v>100</v>
+      </c>
+      <c r="K51" s="3">
         <v>50</v>
       </c>
-      <c r="I51" s="3">
-        <v>100</v>
-      </c>
-      <c r="J51" s="3">
+      <c r="L51" s="3">
+        <v>100</v>
+      </c>
+      <c r="M51" s="3">
         <v>60</v>
       </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M51" s="5">
-        <f t="shared" si="0"/>
-        <v>77.666666666666671</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="13">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="13">
       <c r="A52" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="3">
-        <v>100</v>
-      </c>
-      <c r="D52" s="3">
-        <v>100</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="C52" s="2">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>15</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="0"/>
+        <v>97.111111111111114</v>
+      </c>
+      <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>94</v>
       </c>
-      <c r="F52" s="3">
-        <v>100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M52" s="5">
-        <f t="shared" si="0"/>
-        <v>97.111111111111114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="13">
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>80</v>
+      </c>
+      <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="13">
       <c r="A53" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="4">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
         <v>60</v>
       </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
         <v>40</v>
       </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M53" s="5">
-        <f t="shared" si="0"/>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="13">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="13">
       <c r="A54" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="3">
-        <v>0</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="C54" s="2">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>88</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>74</v>
       </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M54" s="5">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="13">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>80</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="13">
       <c r="A55" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="3">
-        <v>100</v>
-      </c>
-      <c r="D55" s="3">
-        <v>100</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="4">
+        <f t="shared" si="0"/>
+        <v>68.777777777777771</v>
+      </c>
+      <c r="F55" s="3">
+        <v>100</v>
+      </c>
+      <c r="G55" s="3">
+        <v>100</v>
+      </c>
+      <c r="H55" s="3">
         <v>88</v>
       </c>
-      <c r="F55" s="3">
+      <c r="I55" s="3">
         <v>61</v>
       </c>
-      <c r="G55" s="3">
+      <c r="J55" s="3">
         <v>70</v>
       </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3">
-        <v>100</v>
-      </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
       <c r="K55" s="3">
-        <v>100</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M55" s="5">
-        <f t="shared" si="0"/>
-        <v>68.777777777777771</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="13">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>100</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <v>100</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="13">
       <c r="A56" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="3">
-        <v>100</v>
-      </c>
-      <c r="D56" s="3">
-        <v>100</v>
-      </c>
-      <c r="E56" s="3">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2">
+        <v>20</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="0"/>
+        <v>80.777777777777771</v>
+      </c>
+      <c r="F56" s="3">
+        <v>100</v>
+      </c>
+      <c r="G56" s="3">
+        <v>100</v>
+      </c>
+      <c r="H56" s="3">
         <v>94</v>
       </c>
-      <c r="F56" s="3">
+      <c r="I56" s="3">
         <v>93</v>
       </c>
-      <c r="G56" s="3">
-        <v>80</v>
-      </c>
-      <c r="H56" s="3">
-        <v>100</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
       <c r="J56" s="3">
+        <v>80</v>
+      </c>
+      <c r="K56" s="3">
+        <v>100</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
         <v>70</v>
       </c>
-      <c r="K56" s="3">
-        <v>90</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M56" s="5">
-        <f t="shared" si="0"/>
-        <v>80.777777777777771</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="13">
+      <c r="N56" s="3">
+        <v>90</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="13">
       <c r="A57" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C57" s="3">
-        <v>100</v>
-      </c>
-      <c r="D57" s="3">
-        <v>90</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
+      <c r="C57" s="2">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2">
+        <v>10</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="0"/>
+        <v>92.555555555555557</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>90</v>
+      </c>
+      <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>93</v>
       </c>
-      <c r="G57" s="3">
-        <v>80</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>90</v>
-      </c>
       <c r="J57" s="3">
         <v>80</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M57" s="5">
-        <f t="shared" si="0"/>
-        <v>92.555555555555557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="13">
+      <c r="L57" s="3">
+        <v>90</v>
+      </c>
+      <c r="M57" s="3">
+        <v>80</v>
+      </c>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="13">
       <c r="A58" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="3">
-        <v>90</v>
-      </c>
-      <c r="D58" s="3">
-        <v>100</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="C58" s="2">
+        <v>5</v>
+      </c>
+      <c r="D58" s="2">
+        <v>15</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="0"/>
+        <v>94.888888888888886</v>
+      </c>
+      <c r="F58" s="3">
+        <v>90</v>
+      </c>
+      <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>94</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>70</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M58" s="5">
-        <f t="shared" si="0"/>
-        <v>94.888888888888886</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="13">
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="13">
       <c r="A59" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="3">
-        <v>100</v>
-      </c>
-      <c r="D59" s="3">
-        <v>100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="4">
+        <f t="shared" si="0"/>
+        <v>97.777777777777771</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3806,101 +4026,110 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M59" s="5">
-        <f t="shared" si="0"/>
-        <v>97.777777777777771</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="13">
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>80</v>
+      </c>
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="13">
       <c r="A60" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C60" s="3">
-        <v>100</v>
-      </c>
-      <c r="D60" s="3">
-        <v>100</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="4">
+        <f t="shared" si="0"/>
+        <v>82.111111111111114</v>
+      </c>
+      <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>88</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>61</v>
       </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
       <c r="J60" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M60" s="5">
-        <f t="shared" si="0"/>
-        <v>82.111111111111114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="13">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>90</v>
+      </c>
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="13">
       <c r="A61" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="3">
-        <v>90</v>
-      </c>
-      <c r="D61" s="3">
-        <v>90</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="4">
+        <f t="shared" si="0"/>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="F61" s="3">
+        <v>90</v>
+      </c>
+      <c r="G61" s="3">
+        <v>90</v>
+      </c>
+      <c r="H61" s="3">
         <v>82</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>93</v>
       </c>
-      <c r="G61" s="3">
-        <v>100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>90</v>
-      </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
       <c r="J61" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M61" s="5">
-        <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>90</v>
+      </c>
+      <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
+        <v>80</v>
+      </c>
+      <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/score.xlsx
+++ b/score.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechou/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechou/Desktop/0.教學/113-2用戶行為分析/_考題&amp;成績/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0109DD9E-6DA4-2B4E-B939-8C89FEB13E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B81BAA-E64B-8D46-83E5-447DEA5BDEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="840" windowWidth="32000" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7640" yWindow="500" windowWidth="32000" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機器學習與Python行銷數據分析(行銷四合)" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="185">
   <si>
     <t>學號</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>張意瑄</t>
-  </si>
-  <si>
-    <t>D1145172</t>
   </si>
   <si>
     <t>張恩齊</t>
@@ -589,15 +586,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>小考平均</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>GA認證(總+5)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>早鳥(平+5)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1145172</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -679,18 +676,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
   </cellXfs>
@@ -1341,10 +1337,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1353,11 +1349,10 @@
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1365,46 +1360,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -1413,42 +1405,38 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="4">
-        <f>AVERAGE(F2:N2)</f>
-        <v>64.444444444444443</v>
+      <c r="E2" s="3">
+        <v>100</v>
       </c>
       <c r="F2" s="3">
         <v>100</v>
       </c>
       <c r="G2" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M2" s="3">
-        <v>80</v>
-      </c>
-      <c r="N2" s="3">
-        <v>100</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1457,9 +1445,8 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E61" si="0">AVERAGE(F3:N3)</f>
-        <v>73.666666666666671</v>
+      <c r="E3" s="3">
+        <v>100</v>
       </c>
       <c r="F3" s="3">
         <v>100</v>
@@ -1468,31 +1455,28 @@
         <v>100</v>
       </c>
       <c r="H3" s="3">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I3" s="3">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J3" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L3" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M3" s="3">
-        <v>80</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -1501,15 +1485,14 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>20.555555555555557</v>
+      <c r="E4" s="3">
+        <v>85</v>
       </c>
       <c r="F4" s="3">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -1529,58 +1512,51 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1591,42 +1567,38 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>73.111111111111114</v>
+      <c r="E6" s="3">
+        <v>80</v>
       </c>
       <c r="F6" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G6" s="3">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H6" s="3">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I6" s="3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J6" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L6" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M6" s="3">
-        <v>70</v>
-      </c>
-      <c r="N6" s="3">
-        <v>100</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -1637,21 +1609,20 @@
       <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>97.777777777777771</v>
+      <c r="E7" s="3">
+        <v>100</v>
       </c>
       <c r="F7" s="3">
         <v>100</v>
       </c>
       <c r="G7" s="3">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H7" s="3">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I7" s="3">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J7" s="3">
         <v>100</v>
@@ -1665,14 +1636,11 @@
       <c r="M7" s="3">
         <v>100</v>
       </c>
-      <c r="N7" s="3">
-        <v>100</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+      <c r="N7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -1683,9 +1651,8 @@
       <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>64.444444444444443</v>
+      <c r="E8" s="3">
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -1700,25 +1667,22 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M8" s="3">
-        <v>80</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -1727,42 +1691,38 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>74.888888888888886</v>
+      <c r="E9" s="3">
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H9" s="3">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M9" s="3">
-        <v>80</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
@@ -1773,9 +1733,8 @@
       <c r="D10" s="2">
         <v>15</v>
       </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>89.222222222222229</v>
+      <c r="E10" s="3">
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -1784,13 +1743,13 @@
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I10" s="3">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="J10" s="3">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K10" s="3">
         <v>90</v>
@@ -1799,16 +1758,13 @@
         <v>90</v>
       </c>
       <c r="M10" s="3">
-        <v>90</v>
-      </c>
-      <c r="N10" s="3">
-        <v>80</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+        <v>80</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
@@ -1819,42 +1775,38 @@
       <c r="D11" s="2">
         <v>15</v>
       </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>88.222222222222229</v>
+      <c r="E11" s="3">
+        <v>100</v>
       </c>
       <c r="F11" s="3">
         <v>100</v>
       </c>
       <c r="G11" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H11" s="3">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I11" s="3">
         <v>80</v>
       </c>
       <c r="J11" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K11" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L11" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M11" s="3">
-        <v>70</v>
-      </c>
-      <c r="N11" s="3">
-        <v>90</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
@@ -1865,42 +1817,38 @@
       <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>60.777777777777779</v>
+      <c r="E12" s="3">
+        <v>95</v>
       </c>
       <c r="F12" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I12" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J12" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L12" s="3">
         <v>60</v>
       </c>
       <c r="M12" s="3">
-        <v>60</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -1911,21 +1859,20 @@
       <c r="D13" s="2">
         <v>5</v>
       </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>95.666666666666671</v>
+      <c r="E13" s="3">
+        <v>100</v>
       </c>
       <c r="F13" s="3">
         <v>100</v>
       </c>
       <c r="G13" s="3">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H13" s="3">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I13" s="3">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J13" s="3">
         <v>100</v>
@@ -1934,19 +1881,16 @@
         <v>100</v>
       </c>
       <c r="L13" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M13" s="3">
-        <v>80</v>
-      </c>
-      <c r="N13" s="3">
-        <v>100</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -1957,42 +1901,38 @@
       <c r="D14" s="2">
         <v>5</v>
       </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>63.777777777777779</v>
+      <c r="E14" s="3">
+        <v>100</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H14" s="3">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M14" s="3">
-        <v>80</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
@@ -2003,18 +1943,17 @@
       <c r="D15" s="2">
         <v>15</v>
       </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>83.222222222222229</v>
+      <c r="E15" s="3">
+        <v>95</v>
       </c>
       <c r="F15" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H15" s="3">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -2026,19 +1965,16 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M15" s="3">
-        <v>60</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
@@ -2047,42 +1983,38 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="E16" s="3">
+        <v>90</v>
       </c>
       <c r="F16" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G16" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I16" s="3">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L16" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M16" s="3">
-        <v>70</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>73</v>
       </c>
@@ -2091,42 +2023,38 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>80.777777777777771</v>
+      <c r="E17" s="3">
+        <v>90</v>
       </c>
       <c r="F17" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H17" s="3">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I17" s="3">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J17" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M17" s="3">
-        <v>70</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -2137,47 +2065,43 @@
       <c r="D18" s="2">
         <v>5</v>
       </c>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>52.777777777777779</v>
+      <c r="E18" s="3">
+        <v>85</v>
       </c>
       <c r="F18" s="3">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I18" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L18" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M18" s="3">
-        <v>60</v>
-      </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
@@ -2185,12 +2109,11 @@
       <c r="D19" s="2">
         <v>15</v>
       </c>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>86.111111111111114</v>
+      <c r="E19" s="3">
+        <v>95</v>
       </c>
       <c r="F19" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G19" s="3">
         <v>100</v>
@@ -2202,36 +2125,32 @@
         <v>100</v>
       </c>
       <c r="J19" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K19" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L19" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M19" s="3">
-        <v>80</v>
-      </c>
-      <c r="N19" s="3">
-        <v>100</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+      <c r="E20" s="3">
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -2246,131 +2165,119 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M20" s="3">
-        <v>80</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>78.888888888888886</v>
+      <c r="E21" s="3">
+        <v>95</v>
       </c>
       <c r="F21" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H21" s="3">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="I21" s="3">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J21" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M21" s="3">
-        <v>80</v>
-      </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
         <v>20</v>
       </c>
-      <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>67.555555555555557</v>
+      <c r="E22" s="3">
+        <v>85</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>93</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>80</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>70</v>
+      </c>
+      <c r="M22" s="3">
+        <v>80</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>93</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>80</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>70</v>
-      </c>
-      <c r="N22" s="3">
-        <v>80</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
         <v>15</v>
       </c>
-      <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>86.111111111111114</v>
+      <c r="E23" s="3">
+        <v>95</v>
       </c>
       <c r="F23" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
         <v>100</v>
@@ -2382,258 +2289,235 @@
         <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M23" s="3">
-        <v>80</v>
-      </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
         <v>20</v>
       </c>
-      <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>92</v>
+      <c r="E24" s="3">
+        <v>95</v>
       </c>
       <c r="F24" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H24" s="3">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J24" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K24" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M24" s="3">
-        <v>70</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
         <v>20</v>
       </c>
-      <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>94</v>
+      <c r="E25" s="3">
+        <v>100</v>
       </c>
       <c r="F25" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G25" s="3">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H25" s="3">
         <v>93</v>
       </c>
       <c r="I25" s="3">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J25" s="3">
         <v>100</v>
       </c>
       <c r="K25" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L25" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M25" s="3">
-        <v>80</v>
-      </c>
-      <c r="N25" s="3">
-        <v>100</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
         <v>10</v>
       </c>
-      <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>66.111111111111114</v>
+      <c r="E26" s="3">
+        <v>90</v>
       </c>
       <c r="F26" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H26" s="3">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="I26" s="3">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="J26" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>90</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>5</v>
       </c>
-      <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>52.222222222222221</v>
+      <c r="E27" s="3">
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J27" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M27" s="3">
-        <v>80</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>85.777777777777771</v>
+      <c r="E28" s="3">
+        <v>95</v>
       </c>
       <c r="F28" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G28" s="3">
         <v>100</v>
       </c>
       <c r="H28" s="3">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I28" s="3">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J28" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K28" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L28" s="3">
         <v>60</v>
       </c>
       <c r="M28" s="3">
-        <v>60</v>
-      </c>
-      <c r="N28" s="3">
-        <v>90</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -2641,21 +2525,20 @@
       <c r="D29" s="2">
         <v>10</v>
       </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>91.444444444444443</v>
+      <c r="E29" s="3">
+        <v>100</v>
       </c>
       <c r="F29" s="3">
         <v>100</v>
       </c>
       <c r="G29" s="3">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H29" s="3">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I29" s="3">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J29" s="3">
         <v>100</v>
@@ -2664,132 +2547,120 @@
         <v>100</v>
       </c>
       <c r="L29" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M29" s="3">
-        <v>80</v>
-      </c>
-      <c r="N29" s="3">
-        <v>100</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>62</v>
+      <c r="E30" s="3">
+        <v>100</v>
       </c>
       <c r="F30" s="3">
         <v>100</v>
       </c>
       <c r="G30" s="3">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H30" s="3">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I30" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J30" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K30" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L30" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+      <c r="N30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <v>5</v>
       </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>79.777777777777771</v>
+      <c r="E31" s="3">
+        <v>85</v>
       </c>
       <c r="F31" s="3">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G31" s="3">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H31" s="3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I31" s="3">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J31" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K31" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L31" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M31" s="3">
-        <v>60</v>
-      </c>
-      <c r="N31" s="3">
-        <v>100</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
-        <v>42.333333333333336</v>
+      <c r="E32" s="3">
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I32" s="3">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2798,214 +2669,194 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
         <v>5</v>
       </c>
-      <c r="E33" s="4">
-        <f t="shared" si="0"/>
-        <v>81.333333333333329</v>
+      <c r="E33" s="3">
+        <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G33" s="3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H33" s="3">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="I33" s="3">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J33" s="3">
+        <v>90</v>
+      </c>
+      <c r="K33" s="3">
         <v>70</v>
       </c>
-      <c r="K33" s="3">
-        <v>90</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>70</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>70</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+      <c r="N33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
         <v>10</v>
       </c>
-      <c r="E34" s="4">
-        <f t="shared" si="0"/>
-        <v>83.777777777777771</v>
+      <c r="E34" s="3">
+        <v>90</v>
       </c>
       <c r="F34" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G34" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H34" s="3">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I34" s="3">
         <v>100</v>
       </c>
       <c r="J34" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K34" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L34" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M34" s="3">
-        <v>80</v>
-      </c>
-      <c r="N34" s="3">
-        <v>90</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <v>5</v>
       </c>
-      <c r="E35" s="4">
-        <f t="shared" si="0"/>
-        <v>58.111111111111114</v>
+      <c r="E35" s="3">
+        <v>90</v>
       </c>
       <c r="F35" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H35" s="3">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L35" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M35" s="3">
-        <v>80</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="4">
-        <f t="shared" si="0"/>
-        <v>43.666666666666664</v>
+      <c r="E36" s="3">
+        <v>100</v>
       </c>
       <c r="F36" s="3">
         <v>100</v>
       </c>
       <c r="G36" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I36" s="3">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L36" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M36" s="3">
         <v>0</v>
       </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+      <c r="N36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2">
         <v>5</v>
       </c>
-      <c r="E37" s="4">
-        <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+      <c r="E37" s="3">
+        <v>100</v>
       </c>
       <c r="F37" s="3">
         <v>100</v>
@@ -3020,45 +2871,41 @@
         <v>100</v>
       </c>
       <c r="J37" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K37" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L37" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M37" s="3">
-        <v>80</v>
-      </c>
-      <c r="N37" s="3">
-        <v>100</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="4">
-        <f t="shared" si="0"/>
-        <v>29.333333333333332</v>
+      <c r="E38" s="3">
+        <v>0</v>
       </c>
       <c r="F38" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G38" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H38" s="3">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -3070,30 +2917,26 @@
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M38" s="3">
-        <v>70</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="4">
-        <f t="shared" si="0"/>
-        <v>11.111111111111111</v>
+      <c r="E39" s="3">
+        <v>0</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -3111,33 +2954,29 @@
         <v>0</v>
       </c>
       <c r="K39" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L39" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M39" s="3">
         <v>0</v>
       </c>
-      <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+      <c r="N39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="4">
-        <f t="shared" si="0"/>
-        <v>19.222222222222221</v>
+      <c r="E40" s="3">
+        <v>0</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -3146,57 +2985,53 @@
         <v>0</v>
       </c>
       <c r="H40" s="3">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I40" s="3">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
       </c>
       <c r="K40" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L40" s="3">
         <v>40</v>
       </c>
       <c r="M40" s="3">
-        <v>40</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="E41" s="3">
+        <v>90</v>
       </c>
       <c r="F41" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J41" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -3207,25 +3042,21 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1">
+      <c r="N41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="4">
-        <f t="shared" si="0"/>
-        <v>74.777777777777771</v>
+      <c r="E42" s="3">
+        <v>100</v>
       </c>
       <c r="F42" s="3">
         <v>100</v>
@@ -3234,137 +3065,125 @@
         <v>100</v>
       </c>
       <c r="H42" s="3">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I42" s="3">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M42" s="3">
-        <v>80</v>
-      </c>
-      <c r="N42" s="3">
-        <v>100</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="4">
-        <f t="shared" si="0"/>
-        <v>51.444444444444443</v>
+      <c r="E43" s="3">
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I43" s="3">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M43" s="3">
-        <v>70</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2">
         <v>10</v>
       </c>
-      <c r="E44" s="4">
-        <f t="shared" si="0"/>
-        <v>64.444444444444443</v>
+      <c r="E44" s="3">
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M44" s="3">
-        <v>80</v>
-      </c>
-      <c r="N44" s="3">
-        <v>100</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2">
         <v>5</v>
       </c>
-      <c r="E45" s="4">
-        <f t="shared" si="0"/>
-        <v>84.444444444444443</v>
+      <c r="E45" s="3">
+        <v>90</v>
       </c>
       <c r="F45" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -3373,33 +3192,30 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J45" s="3">
         <v>90</v>
       </c>
       <c r="K45" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M45" s="3">
-        <v>90</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C46" s="2">
         <v>5</v>
@@ -3407,18 +3223,17 @@
       <c r="D46" s="2">
         <v>5</v>
       </c>
-      <c r="E46" s="4">
-        <f t="shared" si="0"/>
-        <v>90.444444444444443</v>
+      <c r="E46" s="3">
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H46" s="3">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -3427,117 +3242,106 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L46" s="3">
         <v>60</v>
       </c>
       <c r="M46" s="3">
-        <v>60</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
+      <c r="E47" s="3">
+        <v>95</v>
       </c>
       <c r="F47" s="3">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G47" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I47" s="3">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="J47" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M47" s="3">
-        <v>90</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2">
         <v>10</v>
       </c>
-      <c r="E48" s="4">
-        <f t="shared" si="0"/>
-        <v>50.555555555555557</v>
+      <c r="E48" s="3">
+        <v>95</v>
       </c>
       <c r="F48" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J48" s="3">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K48" s="3">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="L48" s="3">
         <v>60</v>
       </c>
       <c r="M48" s="3">
-        <v>60</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C49" s="2">
         <v>5</v>
@@ -3545,21 +3349,20 @@
       <c r="D49" s="2">
         <v>5</v>
       </c>
-      <c r="E49" s="4">
-        <f t="shared" si="0"/>
-        <v>95.222222222222229</v>
+      <c r="E49" s="3">
+        <v>90</v>
       </c>
       <c r="F49" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H49" s="3">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I49" s="3">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -3568,24 +3371,21 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M49" s="3">
-        <v>80</v>
-      </c>
-      <c r="N49" s="3">
-        <v>100</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C50" s="2">
         <v>5</v>
@@ -3593,93 +3393,85 @@
       <c r="D50" s="2">
         <v>15</v>
       </c>
-      <c r="E50" s="4">
-        <f t="shared" si="0"/>
-        <v>95.111111111111114</v>
+      <c r="E50" s="3">
+        <v>100</v>
       </c>
       <c r="F50" s="3">
         <v>100</v>
       </c>
       <c r="G50" s="3">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H50" s="3">
         <v>93</v>
       </c>
       <c r="I50" s="3">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J50" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K50" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L50" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M50" s="3">
-        <v>80</v>
-      </c>
-      <c r="N50" s="3">
-        <v>100</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="13">
+        <v>100</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="13">
       <c r="A51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
         <v>20</v>
       </c>
-      <c r="E51" s="4">
-        <f t="shared" si="0"/>
-        <v>77.666666666666671</v>
+      <c r="E51" s="3">
+        <v>95</v>
       </c>
       <c r="F51" s="3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G51" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H51" s="3">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I51" s="3">
         <v>100</v>
       </c>
       <c r="J51" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K51" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L51" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M51" s="3">
-        <v>60</v>
-      </c>
-      <c r="N51" s="3">
-        <v>0</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="13">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="13">
       <c r="A52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C52" s="2">
         <v>5</v>
@@ -3687,18 +3479,17 @@
       <c r="D52" s="2">
         <v>15</v>
       </c>
-      <c r="E52" s="4">
-        <f t="shared" si="0"/>
-        <v>97.111111111111114</v>
+      <c r="E52" s="3">
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H52" s="3">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -3710,45 +3501,41 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M52" s="3">
-        <v>80</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="13">
+        <v>100</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="13">
       <c r="A53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="4">
-        <f t="shared" si="0"/>
-        <v>11.111111111111111</v>
+      <c r="E53" s="3">
+        <v>0</v>
       </c>
       <c r="F53" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G53" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
       </c>
       <c r="I53" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J53" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
@@ -3759,19 +3546,16 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3">
-        <v>0</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="13">
+      <c r="N53" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="13">
       <c r="A54" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C54" s="2">
         <v>5</v>
@@ -3779,137 +3563,125 @@
       <c r="D54" s="2">
         <v>5</v>
       </c>
-      <c r="E54" s="4">
-        <f t="shared" si="0"/>
-        <v>38</v>
+      <c r="E54" s="3">
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H54" s="3">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I54" s="3">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M54" s="3">
-        <v>80</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="13">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="13">
       <c r="A55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="4">
-        <f t="shared" si="0"/>
-        <v>68.777777777777771</v>
+      <c r="E55" s="3">
+        <v>100</v>
       </c>
       <c r="F55" s="3">
         <v>100</v>
       </c>
       <c r="G55" s="3">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H55" s="3">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="I55" s="3">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J55" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K55" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L55" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M55" s="3">
-        <v>0</v>
-      </c>
-      <c r="N55" s="3">
-        <v>100</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="13">
+        <v>100</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="13">
       <c r="A56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2">
         <v>20</v>
       </c>
-      <c r="E56" s="4">
-        <f t="shared" si="0"/>
-        <v>80.777777777777771</v>
+      <c r="E56" s="3">
+        <v>100</v>
       </c>
       <c r="F56" s="3">
         <v>100</v>
       </c>
       <c r="G56" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H56" s="3">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I56" s="3">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J56" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K56" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L56" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M56" s="3">
-        <v>70</v>
-      </c>
-      <c r="N56" s="3">
-        <v>90</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="13">
+        <v>90</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="13">
       <c r="A57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C57" s="2">
         <v>5</v>
@@ -3917,47 +3689,43 @@
       <c r="D57" s="2">
         <v>10</v>
       </c>
-      <c r="E57" s="4">
-        <f t="shared" si="0"/>
-        <v>92.555555555555557</v>
+      <c r="E57" s="3">
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G57" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I57" s="3">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J57" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L57" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M57" s="3">
-        <v>80</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="13">
+        <v>100</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="13">
       <c r="A58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C58" s="2">
         <v>5</v>
@@ -3965,18 +3733,17 @@
       <c r="D58" s="2">
         <v>15</v>
       </c>
-      <c r="E58" s="4">
-        <f t="shared" si="0"/>
-        <v>94.888888888888886</v>
+      <c r="E58" s="3">
+        <v>90</v>
       </c>
       <c r="F58" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H58" s="3">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3988,30 +3755,26 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M58" s="3">
-        <v>70</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="13">
+        <v>100</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="13">
       <c r="A59" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="4">
-        <f t="shared" si="0"/>
-        <v>97.777777777777771</v>
+      <c r="E59" s="3">
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -4032,103 +3795,92 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M59" s="3">
-        <v>80</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="13">
+        <v>100</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="13">
       <c r="A60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="4">
-        <f t="shared" si="0"/>
-        <v>82.111111111111114</v>
+      <c r="E60" s="3">
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H60" s="3">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="I60" s="3">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M60" s="3">
-        <v>90</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="13">
+        <v>100</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="13">
       <c r="A61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="4">
-        <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+      <c r="E61" s="3">
+        <v>90</v>
       </c>
       <c r="F61" s="3">
         <v>90</v>
       </c>
       <c r="G61" s="3">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H61" s="3">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I61" s="3">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K61" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M61" s="3">
-        <v>80</v>
-      </c>
-      <c r="N61" s="3">
-        <v>100</v>
-      </c>
-      <c r="O61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N61" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4160,19 +3912,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -4180,10 +3932,10 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C2" s="3">
         <v>46</v>
@@ -4209,10 +3961,10 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -4238,10 +3990,10 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="C4" s="3">
         <v>93</v>
@@ -4267,10 +4019,10 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="C5" s="3">
         <v>73</v>
@@ -4296,10 +4048,10 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="C6" s="3">
         <v>100</v>
@@ -4325,10 +4077,10 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="C7" s="3">
         <v>72</v>
@@ -4354,10 +4106,10 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C8" s="3">
         <v>100</v>

--- a/score.xlsx
+++ b/score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechou/Desktop/0.教學/113-2用戶行為分析/_考題&amp;成績/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B81BAA-E64B-8D46-83E5-447DEA5BDEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A200788-65E9-2842-85D5-21B4E3C1A66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="500" windowWidth="32000" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機器學習與Python行銷數據分析(行銷四合)" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="187">
   <si>
     <t>學號</t>
   </si>
@@ -595,6 +595,14 @@
   </si>
   <si>
     <t>D1145172</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小考平均</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小考次數</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -602,6 +610,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.0"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -676,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -689,6 +700,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1337,10 +1349,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1348,11 +1360,11 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="4" max="6" width="9.83203125" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1365,38 +1377,44 @@
       <c r="D1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -1405,20 +1423,22 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3">
-        <v>100</v>
-      </c>
-      <c r="F2" s="3">
-        <v>100</v>
+      <c r="E2" s="2">
+        <f>COUNT(G2:O2)</f>
+        <v>9</v>
+      </c>
+      <c r="F2" s="6">
+        <f>AVERAGE(G2:O2)</f>
+        <v>64.444444444444443</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
@@ -1427,16 +1447,22 @@
         <v>100</v>
       </c>
       <c r="L2" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M2" s="3">
         <v>100</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N2" s="3">
+        <v>80</v>
+      </c>
+      <c r="O2" s="3">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1445,38 +1471,46 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="3">
-        <v>100</v>
-      </c>
-      <c r="F3" s="3">
-        <v>100</v>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E61" si="0">COUNT(G3:O3)</f>
+        <v>9</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F61" si="1">AVERAGE(G3:O3)</f>
+        <v>73.666666666666671</v>
       </c>
       <c r="G3" s="3">
         <v>100</v>
       </c>
       <c r="H3" s="3">
+        <v>100</v>
+      </c>
+      <c r="I3" s="3">
+        <v>100</v>
+      </c>
+      <c r="J3" s="3">
         <v>93</v>
       </c>
-      <c r="I3" s="3">
-        <v>90</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
       <c r="K3" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L3" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N3" s="3">
+        <v>80</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -1485,17 +1519,19 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="1"/>
+        <v>20.555555555555557</v>
+      </c>
+      <c r="G4" s="3">
         <v>85</v>
       </c>
-      <c r="F4" s="3">
-        <v>100</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1512,11 +1548,17 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>179</v>
       </c>
@@ -1525,10 +1567,12 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="3">
@@ -1552,11 +1596,17 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1567,38 +1617,46 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="3">
-        <v>80</v>
-      </c>
-      <c r="F6" s="3">
-        <v>100</v>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>73.111111111111114</v>
       </c>
       <c r="G6" s="3">
+        <v>80</v>
+      </c>
+      <c r="H6" s="3">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3">
         <v>81</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J6" s="3">
         <v>87</v>
       </c>
-      <c r="I6" s="3">
-        <v>90</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
       <c r="K6" s="3">
+        <v>90</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
         <v>50</v>
       </c>
-      <c r="L6" s="3">
+      <c r="N6" s="3">
         <v>70</v>
       </c>
-      <c r="M6" s="3">
-        <v>100</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O6" s="3">
+        <v>100</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -1609,24 +1667,26 @@
       <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="3">
-        <v>100</v>
-      </c>
-      <c r="F7" s="3">
-        <v>100</v>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>97.777777777777771</v>
       </c>
       <c r="G7" s="3">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3">
+        <v>100</v>
+      </c>
+      <c r="I7" s="3">
         <v>87</v>
       </c>
-      <c r="H7" s="3">
+      <c r="J7" s="3">
         <v>93</v>
       </c>
-      <c r="I7" s="3">
-        <v>100</v>
-      </c>
-      <c r="J7" s="3">
-        <v>100</v>
-      </c>
       <c r="K7" s="3">
         <v>100</v>
       </c>
@@ -1636,11 +1696,17 @@
       <c r="M7" s="3">
         <v>100</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N7" s="3">
+        <v>100</v>
+      </c>
+      <c r="O7" s="3">
+        <v>100</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -1651,11 +1717,13 @@
       <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>64.444444444444443</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -1667,22 +1735,28 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N8" s="3">
+        <v>80</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -1691,38 +1765,46 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>74.888888888888886</v>
       </c>
       <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>94</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>80</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
@@ -1733,38 +1815,46 @@
       <c r="D10" s="2">
         <v>15</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>89.222222222222229</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>93</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>60</v>
       </c>
-      <c r="J10" s="3">
-        <v>90</v>
-      </c>
-      <c r="K10" s="3">
-        <v>90</v>
-      </c>
       <c r="L10" s="3">
         <v>90</v>
       </c>
       <c r="M10" s="3">
-        <v>80</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="N10" s="3">
+        <v>90</v>
+      </c>
+      <c r="O10" s="3">
+        <v>80</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
@@ -1775,38 +1865,46 @@
       <c r="D11" s="2">
         <v>15</v>
       </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3">
-        <v>100</v>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>88.222222222222229</v>
       </c>
       <c r="G11" s="3">
+        <v>100</v>
+      </c>
+      <c r="H11" s="3">
+        <v>100</v>
+      </c>
+      <c r="I11" s="3">
         <v>94</v>
       </c>
-      <c r="H11" s="3">
-        <v>80</v>
-      </c>
-      <c r="I11" s="3">
-        <v>80</v>
-      </c>
       <c r="J11" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K11" s="3">
         <v>80</v>
       </c>
       <c r="L11" s="3">
+        <v>100</v>
+      </c>
+      <c r="M11" s="3">
+        <v>80</v>
+      </c>
+      <c r="N11" s="3">
         <v>70</v>
       </c>
-      <c r="M11" s="3">
-        <v>90</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O11" s="3">
+        <v>90</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
@@ -1817,38 +1915,46 @@
       <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>60.777777777777779</v>
+      </c>
+      <c r="G12" s="3">
         <v>95</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>82</v>
       </c>
-      <c r="H12" s="3">
-        <v>80</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>80</v>
+      </c>
+      <c r="K12" s="3">
         <v>70</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>60</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>60</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -1859,38 +1965,46 @@
       <c r="D13" s="2">
         <v>5</v>
       </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
-      <c r="F13" s="3">
-        <v>100</v>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>95.666666666666671</v>
       </c>
       <c r="G13" s="3">
+        <v>100</v>
+      </c>
+      <c r="H13" s="3">
+        <v>100</v>
+      </c>
+      <c r="I13" s="3">
         <v>88</v>
       </c>
-      <c r="H13" s="3">
+      <c r="J13" s="3">
         <v>93</v>
       </c>
-      <c r="I13" s="3">
-        <v>100</v>
-      </c>
-      <c r="J13" s="3">
-        <v>100</v>
-      </c>
       <c r="K13" s="3">
         <v>100</v>
       </c>
       <c r="L13" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M13" s="3">
         <v>100</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N13" s="3">
+        <v>80</v>
+      </c>
+      <c r="O13" s="3">
+        <v>100</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -1901,38 +2015,46 @@
       <c r="D14" s="2">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>100</v>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>63.777777777777779</v>
       </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>94</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N14" s="3">
+        <v>80</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
@@ -1943,21 +2065,23 @@
       <c r="D15" s="2">
         <v>15</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
+        <v>83.222222222222229</v>
+      </c>
+      <c r="G15" s="3">
         <v>95</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
         <v>94</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
@@ -1965,16 +2089,22 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
         <v>60</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
@@ -1983,38 +2113,46 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="3">
-        <v>90</v>
-      </c>
-      <c r="F16" s="3">
-        <v>100</v>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H16" s="3">
+        <v>100</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
         <v>46</v>
       </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
       <c r="K16" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>90</v>
+      </c>
+      <c r="N16" s="3">
         <v>70</v>
       </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>73</v>
       </c>
@@ -2023,38 +2161,46 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="3">
-        <v>90</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="1"/>
+        <v>80.777777777777771</v>
       </c>
       <c r="G17" s="3">
+        <v>90</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>94</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>93</v>
       </c>
-      <c r="I17" s="3">
-        <v>80</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>70</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -2065,38 +2211,46 @@
       <c r="D18" s="2">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="1"/>
+        <v>52.777777777777779</v>
+      </c>
+      <c r="G18" s="3">
         <v>85</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>50</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>60</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>184</v>
       </c>
@@ -2109,15 +2263,17 @@
       <c r="D19" s="2">
         <v>15</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="1"/>
+        <v>86.111111111111114</v>
+      </c>
+      <c r="G19" s="3">
         <v>95</v>
       </c>
-      <c r="F19" s="3">
-        <v>100</v>
-      </c>
-      <c r="G19" s="3">
-        <v>100</v>
-      </c>
       <c r="H19" s="3">
         <v>100</v>
       </c>
@@ -2125,22 +2281,28 @@
         <v>100</v>
       </c>
       <c r="J19" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K19" s="3">
         <v>100</v>
       </c>
       <c r="L19" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M19" s="3">
         <v>100</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N19" s="3">
+        <v>80</v>
+      </c>
+      <c r="O19" s="3">
+        <v>100</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -2149,11 +2311,13 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="1"/>
+        <v>86.666666666666671</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -2165,22 +2329,28 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N20" s="3">
+        <v>80</v>
+      </c>
+      <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -2189,38 +2359,46 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="1"/>
+        <v>78.888888888888886</v>
+      </c>
+      <c r="G21" s="3">
         <v>95</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>88</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>67</v>
       </c>
-      <c r="I21" s="3">
-        <v>80</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L21" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N21" s="3">
+        <v>80</v>
+      </c>
+      <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -2231,38 +2409,46 @@
       <c r="D22" s="2">
         <v>20</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
+        <v>67.555555555555557</v>
+      </c>
+      <c r="G22" s="3">
         <v>85</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>93</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>80</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>70</v>
       </c>
-      <c r="M22" s="3">
-        <v>80</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O22" s="3">
+        <v>80</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -2273,15 +2459,17 @@
       <c r="D23" s="2">
         <v>15</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="1"/>
+        <v>86.111111111111114</v>
+      </c>
+      <c r="G23" s="3">
         <v>95</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
@@ -2289,22 +2477,28 @@
         <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N23" s="3">
+        <v>80</v>
+      </c>
+      <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -2315,38 +2509,46 @@
       <c r="D24" s="2">
         <v>20</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="G24" s="3">
         <v>95</v>
       </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>93</v>
       </c>
-      <c r="H24" s="3">
-        <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>80</v>
-      </c>
       <c r="J24" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L24" s="3">
+        <v>90</v>
+      </c>
+      <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>70</v>
       </c>
-      <c r="M24" s="3">
-        <v>100</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
@@ -2357,38 +2559,46 @@
       <c r="D25" s="2">
         <v>20</v>
       </c>
-      <c r="E25" s="3">
-        <v>100</v>
-      </c>
-      <c r="F25" s="3">
-        <v>90</v>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="G25" s="3">
+        <v>100</v>
+      </c>
+      <c r="H25" s="3">
+        <v>90</v>
+      </c>
+      <c r="I25" s="3">
         <v>93</v>
       </c>
-      <c r="H25" s="3">
+      <c r="J25" s="3">
         <v>93</v>
       </c>
-      <c r="I25" s="3">
-        <v>100</v>
-      </c>
-      <c r="J25" s="3">
-        <v>100</v>
-      </c>
       <c r="K25" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L25" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M25" s="3">
-        <v>100</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="N25" s="3">
+        <v>80</v>
+      </c>
+      <c r="O25" s="3">
+        <v>100</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
@@ -2399,38 +2609,46 @@
       <c r="D26" s="2">
         <v>10</v>
       </c>
-      <c r="E26" s="3">
-        <v>90</v>
-      </c>
-      <c r="F26" s="3">
-        <v>100</v>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="1"/>
+        <v>66.111111111111114</v>
       </c>
       <c r="G26" s="3">
+        <v>90</v>
+      </c>
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>81</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>54</v>
       </c>
-      <c r="I26" s="3">
-        <v>80</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>90</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>90</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -2441,38 +2659,46 @@
       <c r="D27" s="2">
         <v>5</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>100</v>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="1"/>
+        <v>52.222222222222221</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L27" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>80</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
@@ -2481,38 +2707,46 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="1"/>
+        <v>85.777777777777771</v>
+      </c>
+      <c r="G28" s="3">
         <v>95</v>
       </c>
-      <c r="F28" s="3">
-        <v>100</v>
-      </c>
-      <c r="G28" s="3">
-        <v>100</v>
-      </c>
       <c r="H28" s="3">
+        <v>100</v>
+      </c>
+      <c r="I28" s="3">
+        <v>100</v>
+      </c>
+      <c r="J28" s="3">
         <v>87</v>
       </c>
-      <c r="I28" s="3">
-        <v>80</v>
-      </c>
-      <c r="J28" s="3">
-        <v>100</v>
-      </c>
       <c r="K28" s="3">
+        <v>80</v>
+      </c>
+      <c r="L28" s="3">
+        <v>100</v>
+      </c>
+      <c r="M28" s="3">
         <v>60</v>
       </c>
-      <c r="L28" s="3">
+      <c r="N28" s="3">
         <v>60</v>
       </c>
-      <c r="M28" s="3">
-        <v>90</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O28" s="3">
+        <v>90</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
@@ -2525,38 +2759,46 @@
       <c r="D29" s="2">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>100</v>
-      </c>
-      <c r="F29" s="3">
-        <v>100</v>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="1"/>
+        <v>91.444444444444443</v>
       </c>
       <c r="G29" s="3">
+        <v>100</v>
+      </c>
+      <c r="H29" s="3">
+        <v>100</v>
+      </c>
+      <c r="I29" s="3">
         <v>69</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>74</v>
       </c>
-      <c r="I29" s="3">
-        <v>100</v>
-      </c>
-      <c r="J29" s="3">
-        <v>100</v>
-      </c>
       <c r="K29" s="3">
         <v>100</v>
       </c>
       <c r="L29" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N29" s="3">
+        <v>80</v>
+      </c>
+      <c r="O29" s="3">
+        <v>100</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>98</v>
       </c>
@@ -2565,38 +2807,46 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="3">
-        <v>100</v>
-      </c>
-      <c r="F30" s="3">
-        <v>100</v>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="G30" s="3">
+        <v>100</v>
+      </c>
+      <c r="H30" s="3">
+        <v>100</v>
+      </c>
+      <c r="I30" s="3">
         <v>88</v>
       </c>
-      <c r="H30" s="3">
-        <v>100</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
+        <v>100</v>
+      </c>
+      <c r="K30" s="3">
         <v>70</v>
       </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>100</v>
-      </c>
       <c r="L30" s="3">
         <v>0</v>
       </c>
       <c r="M30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>100</v>
       </c>
@@ -2607,38 +2857,46 @@
       <c r="D31" s="2">
         <v>5</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="1"/>
+        <v>79.777777777777771</v>
+      </c>
+      <c r="G31" s="3">
         <v>85</v>
       </c>
-      <c r="F31" s="3">
-        <v>100</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
+        <v>100</v>
+      </c>
+      <c r="I31" s="3">
         <v>87</v>
       </c>
-      <c r="H31" s="3">
+      <c r="J31" s="3">
         <v>86</v>
       </c>
-      <c r="I31" s="3">
-        <v>100</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
       <c r="K31" s="3">
         <v>100</v>
       </c>
       <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>100</v>
+      </c>
+      <c r="N31" s="3">
         <v>60</v>
       </c>
-      <c r="M31" s="3">
-        <v>100</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O31" s="3">
+        <v>100</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>102</v>
       </c>
@@ -2647,38 +2905,46 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="3">
-        <v>100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="1"/>
+        <v>42.333333333333336</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>81</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>104</v>
       </c>
@@ -2689,38 +2955,46 @@
       <c r="D33" s="2">
         <v>5</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>90</v>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="1"/>
+        <v>81.333333333333329</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>90</v>
+      </c>
+      <c r="I33" s="3">
         <v>88</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>54</v>
-      </c>
-      <c r="I33" s="3">
-        <v>70</v>
-      </c>
-      <c r="J33" s="3">
-        <v>90</v>
       </c>
       <c r="K33" s="3">
         <v>70</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M33" s="3">
         <v>70</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>70</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
@@ -2731,38 +3005,46 @@
       <c r="D34" s="2">
         <v>10</v>
       </c>
-      <c r="E34" s="3">
-        <v>90</v>
-      </c>
-      <c r="F34" s="3">
-        <v>100</v>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="1"/>
+        <v>83.777777777777771</v>
       </c>
       <c r="G34" s="3">
+        <v>90</v>
+      </c>
+      <c r="H34" s="3">
+        <v>100</v>
+      </c>
+      <c r="I34" s="3">
         <v>94</v>
       </c>
-      <c r="H34" s="3">
-        <v>100</v>
-      </c>
-      <c r="I34" s="3">
-        <v>100</v>
-      </c>
       <c r="J34" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K34" s="3">
         <v>100</v>
       </c>
       <c r="L34" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M34" s="3">
-        <v>90</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N34" s="3">
+        <v>80</v>
+      </c>
+      <c r="O34" s="3">
+        <v>90</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>108</v>
       </c>
@@ -2773,38 +3055,46 @@
       <c r="D35" s="2">
         <v>5</v>
       </c>
-      <c r="E35" s="3">
-        <v>90</v>
-      </c>
-      <c r="F35" s="3">
-        <v>100</v>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="1"/>
+        <v>58.111111111111114</v>
       </c>
       <c r="G35" s="3">
+        <v>90</v>
+      </c>
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>63</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="N35" s="3">
+        <v>80</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>110</v>
       </c>
@@ -2813,38 +3103,46 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="3">
-        <v>100</v>
-      </c>
-      <c r="F36" s="3">
-        <v>100</v>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="1"/>
+        <v>43.666666666666664</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H36" s="3">
+        <v>100</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
         <v>93</v>
       </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
       <c r="K36" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
       </c>
       <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -2855,11 +3153,13 @@
       <c r="D37" s="2">
         <v>5</v>
       </c>
-      <c r="E37" s="3">
-        <v>100</v>
-      </c>
-      <c r="F37" s="3">
-        <v>100</v>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="1"/>
+        <v>86.666666666666671</v>
       </c>
       <c r="G37" s="3">
         <v>100</v>
@@ -2871,22 +3171,28 @@
         <v>100</v>
       </c>
       <c r="J37" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K37" s="3">
         <v>100</v>
       </c>
       <c r="L37" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M37" s="3">
         <v>100</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N37" s="3">
+        <v>80</v>
+      </c>
+      <c r="O37" s="3">
+        <v>100</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>114</v>
       </c>
@@ -2895,21 +3201,23 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>100</v>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="1"/>
+        <v>29.333333333333332</v>
       </c>
       <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>100</v>
+      </c>
+      <c r="I38" s="3">
         <v>94</v>
       </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
       <c r="J38" s="3">
         <v>0</v>
       </c>
@@ -2917,16 +3225,22 @@
         <v>0</v>
       </c>
       <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
         <v>70</v>
       </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>116</v>
       </c>
@@ -2935,11 +3249,13 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="1"/>
+        <v>11.111111111111111</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -2954,19 +3270,25 @@
         <v>0</v>
       </c>
       <c r="K39" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L39" s="3">
         <v>0</v>
       </c>
       <c r="M39" s="3">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -2975,38 +3297,46 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="1"/>
+        <v>19.222222222222221</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
       </c>
       <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
         <v>93</v>
       </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
       <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
         <v>40</v>
       </c>
-      <c r="L40" s="3">
+      <c r="N40" s="3">
         <v>40</v>
       </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -3015,26 +3345,28 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="3">
-        <v>90</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -3042,11 +3374,17 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -3055,38 +3393,46 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="3">
-        <v>100</v>
-      </c>
-      <c r="F42" s="3">
-        <v>100</v>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="1"/>
+        <v>74.777777777777771</v>
       </c>
       <c r="G42" s="3">
         <v>100</v>
       </c>
       <c r="H42" s="3">
+        <v>100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>100</v>
+      </c>
+      <c r="J42" s="3">
         <v>93</v>
       </c>
-      <c r="I42" s="3">
-        <v>100</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L42" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>100</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>80</v>
+      </c>
+      <c r="O42" s="3">
+        <v>100</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>123</v>
       </c>
@@ -3095,38 +3441,46 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="1"/>
+        <v>51.444444444444443</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>93</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>70</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
@@ -3137,14 +3491,16 @@
       <c r="D44" s="2">
         <v>10</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="1"/>
+        <v>64.444444444444443</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -3153,22 +3509,28 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N44" s="3">
+        <v>80</v>
+      </c>
+      <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -3179,38 +3541,46 @@
       <c r="D45" s="2">
         <v>5</v>
       </c>
-      <c r="E45" s="3">
-        <v>90</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="1"/>
+        <v>84.444444444444443</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L45" s="3">
         <v>90</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>90</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>129</v>
       </c>
@@ -3223,38 +3593,46 @@
       <c r="D46" s="2">
         <v>5</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="1"/>
+        <v>90.444444444444443</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>94</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>60</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>60</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>131</v>
       </c>
@@ -3263,38 +3641,46 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="G47" s="3">
         <v>95</v>
       </c>
-      <c r="F47" s="3">
-        <v>90</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
+        <v>90</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>86</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>70</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>100</v>
-      </c>
       <c r="L47" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="N47" s="3">
+        <v>90</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>133</v>
       </c>
@@ -3305,38 +3691,46 @@
       <c r="D48" s="2">
         <v>10</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="1"/>
+        <v>50.555555555555557</v>
+      </c>
+      <c r="G48" s="3">
         <v>95</v>
       </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>50</v>
       </c>
-      <c r="J48" s="3">
-        <v>90</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
+        <v>90</v>
+      </c>
+      <c r="M48" s="3">
         <v>60</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>60</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>135</v>
       </c>
@@ -3349,38 +3743,46 @@
       <c r="D49" s="2">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
-        <v>90</v>
-      </c>
-      <c r="F49" s="3">
-        <v>100</v>
+      <c r="E49" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="1"/>
+        <v>95.222222222222229</v>
       </c>
       <c r="G49" s="3">
+        <v>90</v>
+      </c>
+      <c r="H49" s="3">
+        <v>100</v>
+      </c>
+      <c r="I49" s="3">
         <v>94</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>93</v>
       </c>
-      <c r="I49" s="3">
-        <v>100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>100</v>
-      </c>
       <c r="K49" s="3">
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1">
+      <c r="N49" s="3">
+        <v>80</v>
+      </c>
+      <c r="O49" s="3">
+        <v>100</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>137</v>
       </c>
@@ -3393,38 +3795,46 @@
       <c r="D50" s="2">
         <v>15</v>
       </c>
-      <c r="E50" s="3">
-        <v>100</v>
-      </c>
-      <c r="F50" s="3">
-        <v>100</v>
+      <c r="E50" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="1"/>
+        <v>95.111111111111114</v>
       </c>
       <c r="G50" s="3">
+        <v>100</v>
+      </c>
+      <c r="H50" s="3">
+        <v>100</v>
+      </c>
+      <c r="I50" s="3">
         <v>93</v>
       </c>
-      <c r="H50" s="3">
+      <c r="J50" s="3">
         <v>93</v>
       </c>
-      <c r="I50" s="3">
-        <v>100</v>
-      </c>
-      <c r="J50" s="3">
-        <v>90</v>
-      </c>
       <c r="K50" s="3">
         <v>100</v>
       </c>
       <c r="L50" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M50" s="3">
         <v>100</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="13">
+      <c r="N50" s="3">
+        <v>80</v>
+      </c>
+      <c r="O50" s="3">
+        <v>100</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="13">
       <c r="A51" s="2" t="s">
         <v>139</v>
       </c>
@@ -3435,38 +3845,46 @@
       <c r="D51" s="2">
         <v>20</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" si="1"/>
+        <v>77.666666666666671</v>
+      </c>
+      <c r="G51" s="3">
         <v>95</v>
       </c>
-      <c r="F51" s="3">
-        <v>100</v>
-      </c>
-      <c r="G51" s="3">
+      <c r="H51" s="3">
+        <v>100</v>
+      </c>
+      <c r="I51" s="3">
         <v>94</v>
       </c>
-      <c r="H51" s="3">
-        <v>100</v>
-      </c>
-      <c r="I51" s="3">
-        <v>100</v>
-      </c>
       <c r="J51" s="3">
+        <v>100</v>
+      </c>
+      <c r="K51" s="3">
+        <v>100</v>
+      </c>
+      <c r="L51" s="3">
         <v>50</v>
       </c>
-      <c r="K51" s="3">
-        <v>100</v>
-      </c>
-      <c r="L51" s="3">
+      <c r="M51" s="3">
+        <v>100</v>
+      </c>
+      <c r="N51" s="3">
         <v>60</v>
       </c>
-      <c r="M51" s="3">
-        <v>0</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="13">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="13">
       <c r="A52" s="2" t="s">
         <v>141</v>
       </c>
@@ -3479,21 +3897,23 @@
       <c r="D52" s="2">
         <v>15</v>
       </c>
-      <c r="E52" s="3">
-        <v>100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>100</v>
+      <c r="E52" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="1"/>
+        <v>97.111111111111114</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
         <v>94</v>
       </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
-      </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
@@ -3501,16 +3921,22 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="13">
+      <c r="N52" s="3">
+        <v>80</v>
+      </c>
+      <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="13">
       <c r="A53" s="2" t="s">
         <v>143</v>
       </c>
@@ -3519,38 +3945,46 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="E53" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="1"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
         <v>60</v>
       </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
       <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
         <v>40</v>
       </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
-      </c>
       <c r="L53" s="3">
         <v>0</v>
       </c>
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="13">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="13">
       <c r="A54" s="2" t="s">
         <v>145</v>
       </c>
@@ -3563,38 +3997,46 @@
       <c r="D54" s="2">
         <v>5</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
+      <c r="E54" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>88</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>74</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="13">
+      <c r="N54" s="3">
+        <v>80</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="13">
       <c r="A55" s="2" t="s">
         <v>147</v>
       </c>
@@ -3603,38 +4045,46 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="3">
-        <v>100</v>
-      </c>
-      <c r="F55" s="3">
-        <v>100</v>
+      <c r="E55" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="1"/>
+        <v>68.777777777777771</v>
       </c>
       <c r="G55" s="3">
+        <v>100</v>
+      </c>
+      <c r="H55" s="3">
+        <v>100</v>
+      </c>
+      <c r="I55" s="3">
         <v>88</v>
       </c>
-      <c r="H55" s="3">
+      <c r="J55" s="3">
         <v>61</v>
       </c>
-      <c r="I55" s="3">
+      <c r="K55" s="3">
         <v>70</v>
       </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
-      <c r="K55" s="3">
-        <v>100</v>
-      </c>
       <c r="L55" s="3">
         <v>0</v>
       </c>
       <c r="M55" s="3">
         <v>100</v>
       </c>
-      <c r="N55" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="13">
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+      <c r="O55" s="3">
+        <v>100</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="13">
       <c r="A56" s="2" t="s">
         <v>149</v>
       </c>
@@ -3645,38 +4095,46 @@
       <c r="D56" s="2">
         <v>20</v>
       </c>
-      <c r="E56" s="3">
-        <v>100</v>
-      </c>
-      <c r="F56" s="3">
-        <v>100</v>
+      <c r="E56" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="1"/>
+        <v>80.777777777777771</v>
       </c>
       <c r="G56" s="3">
+        <v>100</v>
+      </c>
+      <c r="H56" s="3">
+        <v>100</v>
+      </c>
+      <c r="I56" s="3">
         <v>94</v>
       </c>
-      <c r="H56" s="3">
+      <c r="J56" s="3">
         <v>93</v>
       </c>
-      <c r="I56" s="3">
-        <v>80</v>
-      </c>
-      <c r="J56" s="3">
-        <v>100</v>
-      </c>
       <c r="K56" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L56" s="3">
+        <v>100</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3">
         <v>70</v>
       </c>
-      <c r="M56" s="3">
-        <v>90</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="13">
+      <c r="O56" s="3">
+        <v>90</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="13">
       <c r="A57" s="2" t="s">
         <v>151</v>
       </c>
@@ -3689,38 +4147,46 @@
       <c r="D57" s="2">
         <v>10</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>90</v>
+      <c r="E57" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="1"/>
+        <v>92.555555555555557</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>90</v>
+      </c>
+      <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>93</v>
       </c>
-      <c r="I57" s="3">
-        <v>80</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L57" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="13">
+        <v>90</v>
+      </c>
+      <c r="N57" s="3">
+        <v>80</v>
+      </c>
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="13">
       <c r="A58" s="2" t="s">
         <v>153</v>
       </c>
@@ -3733,21 +4199,23 @@
       <c r="D58" s="2">
         <v>15</v>
       </c>
-      <c r="E58" s="3">
-        <v>90</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
+      <c r="E58" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F58" s="6">
+        <f t="shared" si="1"/>
+        <v>94.888888888888886</v>
       </c>
       <c r="G58" s="3">
+        <v>90</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>94</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
@@ -3755,16 +4223,22 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>70</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="13">
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="13">
       <c r="A59" s="2" t="s">
         <v>155</v>
       </c>
@@ -3773,11 +4247,13 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
+      <c r="E59" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="1"/>
+        <v>97.777777777777771</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3795,16 +4271,22 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="13">
+      <c r="N59" s="3">
+        <v>80</v>
+      </c>
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="13">
       <c r="A60" s="2" t="s">
         <v>157</v>
       </c>
@@ -3813,38 +4295,46 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="3">
-        <v>100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
+      <c r="E60" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F60" s="6">
+        <f t="shared" si="1"/>
+        <v>82.111111111111114</v>
       </c>
       <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>88</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>61</v>
       </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="13">
+      <c r="N60" s="3">
+        <v>90</v>
+      </c>
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="13">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -3853,34 +4343,42 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="3">
-        <v>90</v>
-      </c>
-      <c r="F61" s="3">
-        <v>90</v>
+      <c r="E61" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="1"/>
+        <v>91.666666666666671</v>
       </c>
       <c r="G61" s="3">
+        <v>90</v>
+      </c>
+      <c r="H61" s="3">
+        <v>90</v>
+      </c>
+      <c r="I61" s="3">
         <v>82</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>93</v>
       </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>90</v>
-      </c>
       <c r="K61" s="3">
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" s="3">
+        <v>80</v>
+      </c>
+      <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/score.xlsx
+++ b/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechou/Desktop/0.教學/113-2用戶行為分析/_考題&amp;成績/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A200788-65E9-2842-85D5-21B4E3C1A66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AAFC48-5E19-3541-B06E-B7B369D770A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="182" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -700,7 +700,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1352,7 +1352,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F2" sqref="F2:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/score.xlsx
+++ b/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechou/Desktop/0.教學/113-2用戶行為分析/_考題&amp;成績/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AAFC48-5E19-3541-B06E-B7B369D770A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F3C579-F6F9-C04A-82B2-CA7CA01F0D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,9 +196,6 @@
     <t>林映涵</t>
   </si>
   <si>
-    <t>D1121018</t>
-  </si>
-  <si>
     <t>黃郁晴</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>陳昱如</t>
   </si>
   <si>
-    <t>D1122937</t>
-  </si>
-  <si>
     <t>易巧縈</t>
   </si>
   <si>
@@ -277,12 +271,6 @@
     <t>李庭慧</t>
   </si>
   <si>
-    <t>D1145261</t>
-  </si>
-  <si>
-    <t>賴姿妤</t>
-  </si>
-  <si>
     <t>D1145316</t>
   </si>
   <si>
@@ -295,9 +283,6 @@
     <t>鐘祺喻</t>
   </si>
   <si>
-    <t>D1145363</t>
-  </si>
-  <si>
     <t>黃家怡</t>
   </si>
   <si>
@@ -325,9 +310,6 @@
     <t>林咸震</t>
   </si>
   <si>
-    <t>D1145507</t>
-  </si>
-  <si>
     <t>梁晏慈</t>
   </si>
   <si>
@@ -424,9 +406,6 @@
     <t>林峻宇</t>
   </si>
   <si>
-    <t>D1145970</t>
-  </si>
-  <si>
     <t>古芳宜</t>
   </si>
   <si>
@@ -448,9 +427,6 @@
     <t>洪宏勝</t>
   </si>
   <si>
-    <t>D1161811</t>
-  </si>
-  <si>
     <t>吳熲智</t>
   </si>
   <si>
@@ -494,9 +470,6 @@
   </si>
   <si>
     <t>楊哲安</t>
-  </si>
-  <si>
-    <t>D1268913</t>
   </si>
   <si>
     <t>謝予霏</t>
@@ -603,6 +576,42 @@
   </si>
   <si>
     <t>小考次數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1145507</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1145970</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1268913</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1122937</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1121018</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴姿妤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1145261</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1161811</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1145363</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +620,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -700,7 +709,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1351,8 +1360,8 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F61"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1372,16 +1381,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>35</v>
@@ -1560,10 +1569,10 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1603,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
@@ -1658,10 +1667,10 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
@@ -1708,10 +1717,10 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -1758,10 +1767,10 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1806,10 +1815,10 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
@@ -1856,10 +1865,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -1906,10 +1915,10 @@
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -1956,10 +1965,10 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
@@ -2006,10 +2015,10 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -2056,10 +2065,10 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -2106,10 +2115,10 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2154,10 +2163,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2202,10 +2211,10 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -2252,10 +2261,10 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
@@ -2304,10 +2313,10 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2352,10 +2361,10 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2400,10 +2409,10 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
@@ -2450,10 +2459,10 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
@@ -2500,10 +2509,10 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
@@ -2550,10 +2559,10 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
@@ -2600,10 +2609,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
@@ -2650,10 +2659,10 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
@@ -2700,10 +2709,10 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2748,10 +2757,10 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -2800,10 +2809,10 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2848,10 +2857,10 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
@@ -2898,10 +2907,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2946,10 +2955,10 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
@@ -2996,12 +3005,14 @@
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
       <c r="D34" s="2">
         <v>10</v>
       </c>
@@ -3046,10 +3057,10 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
@@ -3096,10 +3107,10 @@
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3144,10 +3155,10 @@
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2">
@@ -3194,10 +3205,10 @@
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3242,10 +3253,10 @@
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3290,10 +3301,10 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3338,10 +3349,10 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3386,10 +3397,10 @@
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3434,10 +3445,10 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3482,10 +3493,10 @@
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2">
@@ -3532,10 +3543,10 @@
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2">
@@ -3582,10 +3593,10 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C46" s="2">
         <v>5</v>
@@ -3634,10 +3645,10 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3682,10 +3693,10 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2">
@@ -3732,10 +3743,10 @@
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C49" s="2">
         <v>5</v>
@@ -3784,10 +3795,10 @@
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C50" s="2">
         <v>5</v>
@@ -3836,10 +3847,10 @@
     </row>
     <row r="51" spans="1:16" ht="13">
       <c r="A51" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
@@ -3886,10 +3897,10 @@
     </row>
     <row r="52" spans="1:16" ht="13">
       <c r="A52" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C52" s="2">
         <v>5</v>
@@ -3938,10 +3949,10 @@
     </row>
     <row r="53" spans="1:16" ht="13">
       <c r="A53" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3986,10 +3997,10 @@
     </row>
     <row r="54" spans="1:16" ht="13">
       <c r="A54" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C54" s="2">
         <v>5</v>
@@ -4038,10 +4049,10 @@
     </row>
     <row r="55" spans="1:16" ht="13">
       <c r="A55" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -4086,10 +4097,10 @@
     </row>
     <row r="56" spans="1:16" ht="13">
       <c r="A56" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2">
@@ -4136,10 +4147,10 @@
     </row>
     <row r="57" spans="1:16" ht="13">
       <c r="A57" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C57" s="2">
         <v>5</v>
@@ -4188,10 +4199,10 @@
     </row>
     <row r="58" spans="1:16" ht="13">
       <c r="A58" s="2" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C58" s="2">
         <v>5</v>
@@ -4240,10 +4251,10 @@
     </row>
     <row r="59" spans="1:16" ht="13">
       <c r="A59" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -4288,10 +4299,10 @@
     </row>
     <row r="60" spans="1:16" ht="13">
       <c r="A60" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -4336,10 +4347,10 @@
     </row>
     <row r="61" spans="1:16" ht="13">
       <c r="A61" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -4410,19 +4421,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -4430,10 +4441,10 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3">
         <v>46</v>
@@ -4459,10 +4470,10 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -4488,10 +4499,10 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C4" s="3">
         <v>93</v>
@@ -4517,10 +4528,10 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C5" s="3">
         <v>73</v>
@@ -4546,10 +4557,10 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C6" s="3">
         <v>100</v>
@@ -4575,10 +4586,10 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C7" s="3">
         <v>72</v>
@@ -4604,10 +4615,10 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C8" s="3">
         <v>100</v>

--- a/score.xlsx
+++ b/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechou/Desktop/0.教學/113-2用戶行為分析/_考題&amp;成績/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F3C579-F6F9-C04A-82B2-CA7CA01F0D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3978E3-0D35-CA4F-B40C-B8B28A1D8EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4102,7 +4102,9 @@
       <c r="B56" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
       <c r="D56" s="2">
         <v>20</v>
       </c>

--- a/score.xlsx
+++ b/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechou/Desktop/0.教學/113-2用戶行為分析/_考題&amp;成績/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3978E3-0D35-CA4F-B40C-B8B28A1D8EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EC80D6-51E9-AD4F-9912-A2EE55CFBB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,9 +409,6 @@
     <t>古芳宜</t>
   </si>
   <si>
-    <t>D1145997</t>
-  </si>
-  <si>
     <t>董化婷</t>
   </si>
   <si>
@@ -612,6 +609,10 @@
   </si>
   <si>
     <t>D1145363</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1145997</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1360,8 +1361,8 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1381,16 +1382,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>35</v>
@@ -1569,10 +1570,10 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1612,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
@@ -1667,7 +1668,7 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>53</v>
@@ -1820,7 +1821,9 @@
       <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
       <c r="D10" s="2">
         <v>15</v>
       </c>
@@ -1865,7 +1868,7 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>60</v>
@@ -2261,7 +2264,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>75</v>
@@ -2361,10 +2364,10 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2509,7 +2512,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>82</v>
@@ -2757,7 +2760,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>91</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>123</v>
@@ -3645,10 +3648,10 @@
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3693,10 +3696,10 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2">
@@ -3743,10 +3746,10 @@
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C49" s="2">
         <v>5</v>
@@ -3795,10 +3798,10 @@
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="2">
         <v>5</v>
@@ -3847,10 +3850,10 @@
     </row>
     <row r="51" spans="1:16" ht="13">
       <c r="A51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
@@ -3897,10 +3900,10 @@
     </row>
     <row r="52" spans="1:16" ht="13">
       <c r="A52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C52" s="2">
         <v>5</v>
@@ -3949,10 +3952,10 @@
     </row>
     <row r="53" spans="1:16" ht="13">
       <c r="A53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3997,10 +4000,10 @@
     </row>
     <row r="54" spans="1:16" ht="13">
       <c r="A54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C54" s="2">
         <v>5</v>
@@ -4049,10 +4052,10 @@
     </row>
     <row r="55" spans="1:16" ht="13">
       <c r="A55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -4097,10 +4100,10 @@
     </row>
     <row r="56" spans="1:16" ht="13">
       <c r="A56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C56" s="2">
         <v>5</v>
@@ -4149,10 +4152,10 @@
     </row>
     <row r="57" spans="1:16" ht="13">
       <c r="A57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C57" s="2">
         <v>5</v>
@@ -4201,10 +4204,10 @@
     </row>
     <row r="58" spans="1:16" ht="13">
       <c r="A58" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" s="2">
         <v>5</v>
@@ -4253,10 +4256,10 @@
     </row>
     <row r="59" spans="1:16" ht="13">
       <c r="A59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -4301,10 +4304,10 @@
     </row>
     <row r="60" spans="1:16" ht="13">
       <c r="A60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -4349,10 +4352,10 @@
     </row>
     <row r="61" spans="1:16" ht="13">
       <c r="A61" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -4423,19 +4426,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -4443,10 +4446,10 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C2" s="3">
         <v>46</v>
@@ -4472,10 +4475,10 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -4501,10 +4504,10 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C4" s="3">
         <v>93</v>
@@ -4530,10 +4533,10 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C5" s="3">
         <v>73</v>
@@ -4559,10 +4562,10 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="C6" s="3">
         <v>100</v>
@@ -4588,10 +4591,10 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C7" s="3">
         <v>72</v>
@@ -4617,10 +4620,10 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C8" s="3">
         <v>100</v>
